--- a/3.ehome/02-项目计划/工作进度评估2017-07-03孙留成.xlsx
+++ b/3.ehome/02-项目计划/工作进度评估2017-07-03孙留成.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\社区服务平台\SVN\1K_PuJiEJiaPingTai\02-项目计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -985,8 +990,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,63 +1244,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,6 +1256,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1317,6 +1322,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1365,7 +1373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,9 +1405,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1431,6 +1440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1606,14 +1616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G180"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
@@ -1627,18 +1637,18 @@
     <col min="10" max="10" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -1704,7 +1714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -1723,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1742,8 +1752,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1763,8 +1773,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1792,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1801,8 +1811,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="41"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1820,8 +1830,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1839,8 +1849,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1858,8 +1868,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1877,8 +1887,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1896,8 +1906,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1915,8 +1925,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="60"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1944,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1953,8 +1963,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1972,8 +1982,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1991,8 +2001,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="41"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -2010,8 +2020,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="61"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="42"/>
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -2086,11 +2096,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2109,9 +2119,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="57"/>
-      <c r="B27" s="40"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
@@ -2128,10 +2138,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="57"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2149,10 +2159,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="57"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="43"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="43"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="6" t="s">
         <v>39</v>
       </c>
@@ -2168,10 +2178,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="57"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="43"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="50" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -2189,10 +2199,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="57"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="6" t="s">
         <v>41</v>
       </c>
@@ -2208,9 +2218,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="57"/>
-      <c r="B32" s="40"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6" t="s">
         <v>42</v>
       </c>
@@ -2227,9 +2237,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="57"/>
-      <c r="B33" s="40"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="43"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
@@ -2246,9 +2256,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="57"/>
-      <c r="B34" s="41"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="43"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="6" t="s">
         <v>44</v>
       </c>
@@ -2265,9 +2275,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="57"/>
-      <c r="B35" s="39" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2276,7 +2286,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -2286,10 +2296,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="57"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="42" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="50" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -2307,10 +2317,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="57"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="43"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="43"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="6" t="s">
         <v>49</v>
       </c>
@@ -2326,9 +2336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="57"/>
-      <c r="B38" s="40"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="43"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="6" t="s">
         <v>50</v>
       </c>
@@ -2345,9 +2355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="57"/>
-      <c r="B39" s="40"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="6" t="s">
         <v>51</v>
       </c>
@@ -2364,9 +2374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="57"/>
-      <c r="B40" s="40"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="43"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
@@ -2383,16 +2393,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="57"/>
-      <c r="B41" s="40"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="43"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2402,10 +2412,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="57"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -2413,7 +2423,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -2423,16 +2433,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="57"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="43"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -2442,16 +2452,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="57"/>
-      <c r="B44" s="41"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="43"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
@@ -2461,9 +2471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="57"/>
-      <c r="B45" s="39" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="43"/>
+      <c r="B45" s="44" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -2472,7 +2482,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="8">
         <v>0</v>
@@ -2482,10 +2492,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="57"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="42" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="43"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -2503,10 +2513,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="57"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="43"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="43"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="6" t="s">
         <v>49</v>
       </c>
@@ -2522,10 +2532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="57"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="42" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="43"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -2533,7 +2543,7 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="8">
         <v>0</v>
@@ -2543,16 +2553,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="57"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="43"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="43"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
@@ -2562,9 +2572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="57"/>
-      <c r="B50" s="40"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="43"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="6" t="s">
         <v>64</v>
       </c>
@@ -2573,7 +2583,7 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
@@ -2583,9 +2593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="57"/>
-      <c r="B51" s="40"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="43"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="6" t="s">
         <v>66</v>
       </c>
@@ -2594,7 +2604,7 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -2604,16 +2614,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="57"/>
-      <c r="B52" s="40"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="43"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -2623,10 +2633,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="57"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="42" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="43"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="50" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -2634,7 +2644,7 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="8">
         <v>0</v>
@@ -2644,18 +2654,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="57"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="42" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="43"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="50" t="s">
         <v>71</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F54" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -2665,16 +2675,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="57"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="43"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F55" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="8">
         <v>0</v>
@@ -2684,16 +2694,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="57"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="43"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G56" s="8">
         <v>0</v>
@@ -2703,16 +2713,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="57"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="43"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F57" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="8">
         <v>0</v>
@@ -2722,18 +2732,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="57"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="42" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="50" t="s">
         <v>76</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F58" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58" s="8">
         <v>0</v>
@@ -2743,16 +2753,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="57"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="43"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F59" s="14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -2762,16 +2772,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="57"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="43"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F60" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="8">
         <v>0</v>
@@ -2781,16 +2791,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="57"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="43"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="43"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F61" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" s="8">
         <v>0</v>
@@ -2800,18 +2810,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="57"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="42" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="43"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="50" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F62" s="14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G62" s="8">
         <v>0</v>
@@ -2821,16 +2831,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="57"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="43"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F63" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" s="8">
         <v>0</v>
@@ -2840,16 +2850,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="57"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="43"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F64" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64" s="8">
         <v>0</v>
@@ -2859,10 +2869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="57"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="42" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="43"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -2870,7 +2880,7 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G65" s="8">
         <v>0</v>
@@ -2880,16 +2890,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="57"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="44"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G66" s="8">
         <v>0</v>
@@ -2899,16 +2909,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="57"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="43"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="8">
         <v>0</v>
@@ -2918,10 +2928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="57"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="42" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2929,7 +2939,7 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" s="8">
         <v>0</v>
@@ -2939,16 +2949,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="57"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="44"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="43"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G69" s="8">
         <v>0</v>
@@ -2958,16 +2968,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="57"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="43"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="43"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" s="8">
         <v>0</v>
@@ -2977,10 +2987,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="57"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="42" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="43"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="50" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -2988,7 +2998,7 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="8">
         <v>0</v>
@@ -2998,16 +3008,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="57"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="43"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="43"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="8">
         <v>0</v>
@@ -3017,9 +3027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="57"/>
-      <c r="B73" s="40"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="43"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="15" t="s">
         <v>86</v>
       </c>
@@ -3036,9 +3046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="57"/>
-      <c r="B74" s="40"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="43"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="15" t="s">
         <v>87</v>
       </c>
@@ -3055,9 +3065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="57"/>
-      <c r="B75" s="41"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="15" t="s">
         <v>88</v>
       </c>
@@ -3074,12 +3084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="57"/>
-      <c r="B76" s="39" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="43"/>
+      <c r="B76" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="50" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -3097,10 +3107,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="57"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="44"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="43"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="6" t="s">
         <v>91</v>
       </c>
@@ -3109,17 +3119,17 @@
         <v>1</v>
       </c>
       <c r="G77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="57"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="43"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="6" t="s">
         <v>92</v>
       </c>
@@ -3128,17 +3138,17 @@
         <v>1.5</v>
       </c>
       <c r="G78" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="57"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="44"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="43"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="6" t="s">
         <v>93</v>
       </c>
@@ -3147,17 +3157,17 @@
         <v>1.5</v>
       </c>
       <c r="G79" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="57"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="44"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="43"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="6" t="s">
         <v>94</v>
       </c>
@@ -3166,17 +3176,17 @@
         <v>1.5</v>
       </c>
       <c r="G80" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="57"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="43"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="43"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="6" t="s">
         <v>95</v>
       </c>
@@ -3185,17 +3195,17 @@
         <v>3</v>
       </c>
       <c r="G81" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="57"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="43"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="50" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -3213,10 +3223,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="57"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="44"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="43"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="6" t="s">
         <v>97</v>
       </c>
@@ -3232,10 +3242,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="57"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="44"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="43"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="6" t="s">
         <v>98</v>
       </c>
@@ -3251,10 +3261,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="57"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="44"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="43"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="6" t="s">
         <v>99</v>
       </c>
@@ -3270,10 +3280,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="57"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="44"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="43"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="6" t="s">
         <v>100</v>
       </c>
@@ -3289,10 +3299,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="57"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="44"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="43"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="6" t="s">
         <v>101</v>
       </c>
@@ -3308,10 +3318,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="57"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="44"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="43"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="6" t="s">
         <v>102</v>
       </c>
@@ -3320,17 +3330,17 @@
         <v>4</v>
       </c>
       <c r="G88" s="8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H88" s="12">
         <f t="shared" si="2"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="57"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="44"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="43"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="6" t="s">
         <v>103</v>
       </c>
@@ -3346,10 +3356,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="57"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="43"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="43"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="6" t="s">
         <v>104</v>
       </c>
@@ -3358,17 +3368,17 @@
         <v>6</v>
       </c>
       <c r="G90" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" ref="H90:H153" si="3">G90*F90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="57"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="43"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="50" t="s">
         <v>105</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -3386,10 +3396,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="57"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="44"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="43"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="6" t="s">
         <v>107</v>
       </c>
@@ -3405,10 +3415,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="57"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="44"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="43"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="6" t="s">
         <v>108</v>
       </c>
@@ -3424,10 +3434,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="57"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="44"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="6" t="s">
         <v>100</v>
       </c>
@@ -3443,10 +3453,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="57"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="44"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="6" t="s">
         <v>102</v>
       </c>
@@ -3455,17 +3465,17 @@
         <v>4</v>
       </c>
       <c r="G95" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H95" s="12">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="57"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="43"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="51"/>
       <c r="D96" s="6" t="s">
         <v>109</v>
       </c>
@@ -3474,17 +3484,17 @@
         <v>3</v>
       </c>
       <c r="G96" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="57"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="43"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="50" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -3502,10 +3512,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="57"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="44"/>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="43"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="6" t="s">
         <v>111</v>
       </c>
@@ -3521,10 +3531,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="57"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="44"/>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="43"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="6" t="s">
         <v>112</v>
       </c>
@@ -3533,17 +3543,17 @@
         <v>3</v>
       </c>
       <c r="G99" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H99" s="12">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="57"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="44"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="43"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="6" t="s">
         <v>100</v>
       </c>
@@ -3552,17 +3562,17 @@
         <v>2</v>
       </c>
       <c r="G100" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H100" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="57"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="44"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="43"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="6" t="s">
         <v>102</v>
       </c>
@@ -3571,17 +3581,17 @@
         <v>4</v>
       </c>
       <c r="G101" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H101" s="12">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="57"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="43"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="43"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="6" t="s">
         <v>109</v>
       </c>
@@ -3590,17 +3600,17 @@
         <v>3</v>
       </c>
       <c r="G102" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="57"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="43"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -3611,17 +3621,17 @@
         <v>3</v>
       </c>
       <c r="G103" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H103" s="12">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="57"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="44"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="43"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="6" t="s">
         <v>114</v>
       </c>
@@ -3630,17 +3640,17 @@
         <v>12</v>
       </c>
       <c r="G104" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H104" s="12">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="57"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="44"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="43"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="6" t="s">
         <v>113</v>
       </c>
@@ -3649,17 +3659,17 @@
         <v>5</v>
       </c>
       <c r="G105" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="57"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="43"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="6" t="s">
         <v>102</v>
       </c>
@@ -3668,17 +3678,17 @@
         <v>3</v>
       </c>
       <c r="G106" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H106" s="12">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="57"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="42" t="s">
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="43"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="50" t="s">
         <v>115</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -3696,10 +3706,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="57"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="44"/>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="43"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="6" t="s">
         <v>117</v>
       </c>
@@ -3715,10 +3725,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="57"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="43"/>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="43"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="6" t="s">
         <v>118</v>
       </c>
@@ -3734,9 +3744,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="57"/>
-      <c r="B110" s="40"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="43"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="6" t="s">
         <v>119</v>
       </c>
@@ -3753,10 +3763,10 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="57"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="43"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="50" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -3774,10 +3784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="57"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="44"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="43"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="6" t="s">
         <v>121</v>
       </c>
@@ -3793,10 +3803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="57"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="44"/>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="43"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="6" t="s">
         <v>122</v>
       </c>
@@ -3812,10 +3822,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="57"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="43"/>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="43"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="6" t="s">
         <v>123</v>
       </c>
@@ -3831,10 +3841,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="57"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="43"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="50" t="s">
         <v>124</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -3852,10 +3862,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="57"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="44"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="43"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="6" t="s">
         <v>126</v>
       </c>
@@ -3871,10 +3881,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="57"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="44"/>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="43"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="6" t="s">
         <v>127</v>
       </c>
@@ -3890,10 +3900,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="57"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="44"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="43"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="6" t="s">
         <v>128</v>
       </c>
@@ -3909,10 +3919,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="57"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="43"/>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="43"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="6" t="s">
         <v>129</v>
       </c>
@@ -3928,12 +3938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="57"/>
-      <c r="B120" s="39" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="43"/>
+      <c r="B120" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="42" t="s">
+      <c r="C120" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -3944,17 +3954,17 @@
         <v>0.5</v>
       </c>
       <c r="G120" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="57"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="43"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="43"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="6" t="s">
         <v>132</v>
       </c>
@@ -3963,17 +3973,17 @@
         <v>12</v>
       </c>
       <c r="G121" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H121" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="57"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42" t="s">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="43"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="50" t="s">
         <v>133</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -3991,10 +4001,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="57"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="43"/>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="43"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="6" t="s">
         <v>135</v>
       </c>
@@ -4010,10 +4020,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="57"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="43"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="50" t="s">
         <v>136</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -4031,10 +4041,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="57"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="43"/>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="43"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="6" t="s">
         <v>138</v>
       </c>
@@ -4050,10 +4060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="57"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="43"/>
+      <c r="B126" s="46"/>
+      <c r="C126" s="50" t="s">
         <v>139</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -4071,10 +4081,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="57"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="44"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="43"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="52"/>
       <c r="D127" s="6" t="s">
         <v>141</v>
       </c>
@@ -4090,10 +4100,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="57"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="43"/>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="43"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="6" t="s">
         <v>142</v>
       </c>
@@ -4109,10 +4119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="57"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="43"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -4130,10 +4140,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="57"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="44"/>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="43"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="6" t="s">
         <v>144</v>
       </c>
@@ -4149,10 +4159,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="57"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="44"/>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="43"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="52"/>
       <c r="D131" s="6" t="s">
         <v>145</v>
       </c>
@@ -4168,10 +4178,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="57"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="44"/>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="43"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="6" t="s">
         <v>146</v>
       </c>
@@ -4187,10 +4197,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="57"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="43"/>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="43"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="6" t="s">
         <v>147</v>
       </c>
@@ -4206,10 +4216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="57"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="43"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="50" t="s">
         <v>148</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -4227,10 +4237,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="57"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="44"/>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="43"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="52"/>
       <c r="D135" s="6" t="s">
         <v>150</v>
       </c>
@@ -4246,10 +4256,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="57"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="43"/>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="43"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="51"/>
       <c r="D136" s="6" t="s">
         <v>151</v>
       </c>
@@ -4265,10 +4275,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="57"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="42" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="43"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="50" t="s">
         <v>152</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -4279,17 +4289,17 @@
         <v>3</v>
       </c>
       <c r="G137" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H137" s="12">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="57"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="44"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="43"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="6" t="s">
         <v>154</v>
       </c>
@@ -4305,10 +4315,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="57"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="44"/>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="43"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="52"/>
       <c r="D139" s="6" t="s">
         <v>155</v>
       </c>
@@ -4324,10 +4334,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="57"/>
-      <c r="B140" s="40"/>
-      <c r="C140" s="44"/>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="43"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="52"/>
       <c r="D140" s="6" t="s">
         <v>156</v>
       </c>
@@ -4343,10 +4353,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="57"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="44"/>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="43"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="6" t="s">
         <v>157</v>
       </c>
@@ -4362,10 +4372,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="57"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="44"/>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="43"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="52"/>
       <c r="D142" s="6" t="s">
         <v>158</v>
       </c>
@@ -4381,10 +4391,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="57"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="44"/>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="43"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="6" t="s">
         <v>159</v>
       </c>
@@ -4400,10 +4410,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="57"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="44"/>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="43"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="52"/>
       <c r="D144" s="6" t="s">
         <v>160</v>
       </c>
@@ -4419,10 +4429,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="57"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="43"/>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="43"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="51"/>
       <c r="D145" s="6" t="s">
         <v>161</v>
       </c>
@@ -4431,17 +4441,17 @@
         <v>1.5</v>
       </c>
       <c r="G145" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H145" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="57"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="51" t="s">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="43"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="53" t="s">
         <v>162</v>
       </c>
       <c r="D146" s="16" t="s">
@@ -4459,10 +4469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="57"/>
-      <c r="B147" s="40"/>
-      <c r="C147" s="52"/>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="43"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="54"/>
       <c r="D147" s="16" t="s">
         <v>164</v>
       </c>
@@ -4478,10 +4488,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="57"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="52"/>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="43"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="54"/>
       <c r="D148" s="16" t="s">
         <v>165</v>
       </c>
@@ -4499,10 +4509,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="57"/>
-      <c r="B149" s="40"/>
-      <c r="C149" s="52"/>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="43"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="54"/>
       <c r="D149" s="15"/>
       <c r="E149" s="16" t="s">
         <v>166</v>
@@ -4518,10 +4528,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="57"/>
-      <c r="B150" s="40"/>
-      <c r="C150" s="52"/>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="43"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="54"/>
       <c r="D150" s="15"/>
       <c r="E150" s="16" t="s">
         <v>167</v>
@@ -4537,10 +4547,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="57"/>
-      <c r="B151" s="40"/>
-      <c r="C151" s="52"/>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="43"/>
+      <c r="B151" s="46"/>
+      <c r="C151" s="54"/>
       <c r="D151" s="16" t="s">
         <v>168</v>
       </c>
@@ -4558,10 +4568,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="57"/>
-      <c r="B152" s="40"/>
-      <c r="C152" s="52"/>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="43"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="54"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16" t="s">
         <v>169</v>
@@ -4577,10 +4587,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="57"/>
-      <c r="B153" s="40"/>
-      <c r="C153" s="52"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="43"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="54"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16" t="s">
         <v>170</v>
@@ -4596,10 +4606,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="57"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="52"/>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="43"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="54"/>
       <c r="D154" s="16" t="s">
         <v>171</v>
       </c>
@@ -4617,10 +4627,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="57"/>
-      <c r="B155" s="40"/>
-      <c r="C155" s="52"/>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="43"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16" t="s">
         <v>172</v>
@@ -4636,10 +4646,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="57"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="52"/>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A156" s="43"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="54"/>
       <c r="D156" s="16" t="s">
         <v>173</v>
       </c>
@@ -4657,10 +4667,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="57"/>
-      <c r="B157" s="40"/>
-      <c r="C157" s="52"/>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A157" s="43"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="54"/>
       <c r="D157" s="16"/>
       <c r="E157" s="15" t="s">
         <v>174</v>
@@ -4676,10 +4686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="57"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="53"/>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A158" s="43"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="55"/>
       <c r="D158" s="16" t="s">
         <v>175</v>
       </c>
@@ -4695,10 +4705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="57"/>
-      <c r="B159" s="40"/>
-      <c r="C159" s="48" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="43"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="56" t="s">
         <v>176</v>
       </c>
       <c r="D159" s="7" t="s">
@@ -4709,17 +4719,17 @@
         <v>0.5</v>
       </c>
       <c r="G159" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="57"/>
-      <c r="B160" s="40"/>
-      <c r="C160" s="49"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A160" s="43"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="57"/>
       <c r="D160" s="7" t="s">
         <v>178</v>
       </c>
@@ -4728,17 +4738,17 @@
         <v>1</v>
       </c>
       <c r="G160" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="57"/>
-      <c r="B161" s="40"/>
-      <c r="C161" s="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A161" s="43"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="7" t="s">
         <v>179</v>
       </c>
@@ -4747,17 +4757,17 @@
         <v>1</v>
       </c>
       <c r="G161" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="57"/>
-      <c r="B162" s="40"/>
-      <c r="C162" s="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A162" s="43"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="58"/>
       <c r="D162" s="7" t="s">
         <v>180</v>
       </c>
@@ -4773,10 +4783,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="57"/>
-      <c r="B163" s="40"/>
-      <c r="C163" s="48" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A163" s="43"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="56" t="s">
         <v>181</v>
       </c>
       <c r="D163" s="7" t="s">
@@ -4794,10 +4804,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="57"/>
-      <c r="B164" s="40"/>
-      <c r="C164" s="49"/>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A164" s="43"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="57"/>
       <c r="D164" s="7" t="s">
         <v>182</v>
       </c>
@@ -4813,10 +4823,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="57"/>
-      <c r="B165" s="40"/>
-      <c r="C165" s="50"/>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A165" s="43"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="58"/>
       <c r="D165" s="7" t="s">
         <v>183</v>
       </c>
@@ -4832,10 +4842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="57"/>
-      <c r="B166" s="40"/>
-      <c r="C166" s="48" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A166" s="43"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="56" t="s">
         <v>184</v>
       </c>
       <c r="D166" s="7" t="s">
@@ -4853,10 +4863,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="57"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="49"/>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A167" s="43"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="57"/>
       <c r="D167" s="7" t="s">
         <v>185</v>
       </c>
@@ -4872,10 +4882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="57"/>
-      <c r="B168" s="40"/>
-      <c r="C168" s="50"/>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A168" s="43"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="58"/>
       <c r="D168" s="7" t="s">
         <v>183</v>
       </c>
@@ -4891,10 +4901,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="57"/>
-      <c r="B169" s="40"/>
-      <c r="C169" s="48" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A169" s="43"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="56" t="s">
         <v>186</v>
       </c>
       <c r="D169" s="7" t="s">
@@ -4912,10 +4922,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="57"/>
-      <c r="B170" s="40"/>
-      <c r="C170" s="50"/>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A170" s="43"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="7" t="s">
         <v>188</v>
       </c>
@@ -4931,10 +4941,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="57"/>
-      <c r="B171" s="40"/>
-      <c r="C171" s="48" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A171" s="43"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="56" t="s">
         <v>189</v>
       </c>
       <c r="D171" s="7" t="s">
@@ -4952,10 +4962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="57"/>
-      <c r="B172" s="40"/>
-      <c r="C172" s="49"/>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A172" s="43"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="57"/>
       <c r="D172" s="7" t="s">
         <v>190</v>
       </c>
@@ -4971,10 +4981,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="57"/>
-      <c r="B173" s="40"/>
-      <c r="C173" s="50"/>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A173" s="43"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="58"/>
       <c r="D173" s="7" t="s">
         <v>191</v>
       </c>
@@ -4990,9 +5000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="57"/>
-      <c r="B174" s="40"/>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A174" s="43"/>
+      <c r="B174" s="46"/>
       <c r="C174" s="18" t="s">
         <v>192</v>
       </c>
@@ -5009,10 +5019,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="57"/>
-      <c r="B175" s="40"/>
-      <c r="C175" s="48" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A175" s="43"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="56" t="s">
         <v>193</v>
       </c>
       <c r="D175" s="7" t="s">
@@ -5030,10 +5040,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="57"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="49"/>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A176" s="43"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="57"/>
       <c r="D176" s="7" t="s">
         <v>194</v>
       </c>
@@ -5049,10 +5059,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="57"/>
-      <c r="B177" s="40"/>
-      <c r="C177" s="49"/>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A177" s="43"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="57"/>
       <c r="D177" s="7" t="s">
         <v>195</v>
       </c>
@@ -5068,10 +5078,10 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="57"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="49"/>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A178" s="43"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="57"/>
       <c r="D178" s="7" t="s">
         <v>196</v>
       </c>
@@ -5087,10 +5097,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="57"/>
-      <c r="B179" s="40"/>
-      <c r="C179" s="49"/>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A179" s="43"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="57"/>
       <c r="D179" s="7" t="s">
         <v>197</v>
       </c>
@@ -5106,10 +5116,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="57"/>
-      <c r="B180" s="41"/>
-      <c r="C180" s="50"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A180" s="43"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="58"/>
       <c r="D180" s="7" t="s">
         <v>198</v>
       </c>
@@ -5125,8 +5135,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="57" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A181" s="43" t="s">
         <v>199</v>
       </c>
       <c r="B181" s="19" t="s">
@@ -5146,9 +5156,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="57"/>
-      <c r="B182" s="39" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A182" s="43"/>
+      <c r="B182" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C182" s="17" t="s">
@@ -5160,17 +5170,17 @@
         <v>4</v>
       </c>
       <c r="G182" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="57"/>
-      <c r="B183" s="40"/>
-      <c r="C183" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A183" s="43"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="17" t="s">
@@ -5181,17 +5191,17 @@
         <v>2</v>
       </c>
       <c r="G183" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="57"/>
-      <c r="B184" s="40"/>
-      <c r="C184" s="49"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A184" s="43"/>
+      <c r="B184" s="46"/>
+      <c r="C184" s="57"/>
       <c r="D184" s="17" t="s">
         <v>203</v>
       </c>
@@ -5200,17 +5210,17 @@
         <v>2</v>
       </c>
       <c r="G184" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="57"/>
-      <c r="B185" s="40"/>
-      <c r="C185" s="49"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A185" s="43"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="57"/>
       <c r="D185" s="17" t="s">
         <v>204</v>
       </c>
@@ -5226,10 +5236,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="57"/>
-      <c r="B186" s="40"/>
-      <c r="C186" s="49"/>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A186" s="43"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="57"/>
       <c r="D186" s="17" t="s">
         <v>205</v>
       </c>
@@ -5245,10 +5255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="57"/>
-      <c r="B187" s="40"/>
-      <c r="C187" s="49"/>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A187" s="43"/>
+      <c r="B187" s="46"/>
+      <c r="C187" s="57"/>
       <c r="D187" s="17" t="s">
         <v>206</v>
       </c>
@@ -5264,10 +5274,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="57"/>
-      <c r="B188" s="40"/>
-      <c r="C188" s="49"/>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A188" s="43"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="57"/>
       <c r="D188" s="17" t="s">
         <v>207</v>
       </c>
@@ -5283,10 +5293,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="57"/>
-      <c r="B189" s="41"/>
-      <c r="C189" s="50"/>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A189" s="43"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="58"/>
       <c r="D189" s="17" t="s">
         <v>208</v>
       </c>
@@ -5302,9 +5312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="57"/>
-      <c r="B190" s="39" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A190" s="43"/>
+      <c r="B190" s="44" t="s">
         <v>209</v>
       </c>
       <c r="C190" s="17" t="s">
@@ -5323,9 +5333,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="57"/>
-      <c r="B191" s="40"/>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A191" s="43"/>
+      <c r="B191" s="46"/>
       <c r="C191" s="17" t="s">
         <v>211</v>
       </c>
@@ -5342,9 +5352,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="57"/>
-      <c r="B192" s="40"/>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A192" s="43"/>
+      <c r="B192" s="46"/>
       <c r="C192" s="17" t="s">
         <v>212</v>
       </c>
@@ -5361,9 +5371,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="57"/>
-      <c r="B193" s="40"/>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A193" s="43"/>
+      <c r="B193" s="46"/>
       <c r="C193" s="17" t="s">
         <v>213</v>
       </c>
@@ -5380,9 +5390,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="57"/>
-      <c r="B194" s="41"/>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A194" s="43"/>
+      <c r="B194" s="45"/>
       <c r="C194" s="17" t="s">
         <v>214</v>
       </c>
@@ -5399,9 +5409,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="57"/>
-      <c r="B195" s="39" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A195" s="43"/>
+      <c r="B195" s="44" t="s">
         <v>215</v>
       </c>
       <c r="C195" s="17" t="s">
@@ -5420,9 +5430,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="57"/>
-      <c r="B196" s="40"/>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A196" s="43"/>
+      <c r="B196" s="46"/>
       <c r="C196" s="17" t="s">
         <v>217</v>
       </c>
@@ -5432,16 +5442,16 @@
         <v>5</v>
       </c>
       <c r="G196" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="57"/>
-      <c r="B197" s="40"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A197" s="43"/>
+      <c r="B197" s="46"/>
       <c r="C197" s="17" t="s">
         <v>218</v>
       </c>
@@ -5451,16 +5461,16 @@
         <v>3</v>
       </c>
       <c r="G197" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="57"/>
-      <c r="B198" s="41"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A198" s="43"/>
+      <c r="B198" s="45"/>
       <c r="C198" s="17" t="s">
         <v>219</v>
       </c>
@@ -5470,16 +5480,16 @@
         <v>3</v>
       </c>
       <c r="G198" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="57"/>
-      <c r="B199" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A199" s="43"/>
+      <c r="B199" s="44" t="s">
         <v>220</v>
       </c>
       <c r="C199" s="17" t="s">
@@ -5498,9 +5508,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="57"/>
-      <c r="B200" s="40"/>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A200" s="43"/>
+      <c r="B200" s="46"/>
       <c r="C200" s="17" t="s">
         <v>221</v>
       </c>
@@ -5517,9 +5527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
-      <c r="A201" s="57"/>
-      <c r="B201" s="41"/>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A201" s="43"/>
+      <c r="B201" s="45"/>
       <c r="C201" s="17" t="s">
         <v>222</v>
       </c>
@@ -5536,9 +5546,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
-      <c r="A202" s="57"/>
-      <c r="B202" s="39" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A202" s="43"/>
+      <c r="B202" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C202" s="17" t="s">
@@ -5557,9 +5567,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="57"/>
-      <c r="B203" s="40"/>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A203" s="43"/>
+      <c r="B203" s="46"/>
       <c r="C203" s="17" t="s">
         <v>224</v>
       </c>
@@ -5576,9 +5586,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="57"/>
-      <c r="B204" s="40"/>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A204" s="43"/>
+      <c r="B204" s="46"/>
       <c r="C204" s="15" t="s">
         <v>225</v>
       </c>
@@ -5595,9 +5605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="57"/>
-      <c r="B205" s="41"/>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A205" s="43"/>
+      <c r="B205" s="45"/>
       <c r="C205" s="6" t="s">
         <v>226</v>
       </c>
@@ -5614,9 +5624,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="57"/>
-      <c r="B206" s="39" t="s">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A206" s="43"/>
+      <c r="B206" s="44" t="s">
         <v>227</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -5635,9 +5645,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="57"/>
-      <c r="B207" s="41"/>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A207" s="43"/>
+      <c r="B207" s="45"/>
       <c r="C207" s="6" t="s">
         <v>109</v>
       </c>
@@ -5654,9 +5664,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="57"/>
-      <c r="B208" s="39" t="s">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A208" s="43"/>
+      <c r="B208" s="44" t="s">
         <v>228</v>
       </c>
       <c r="C208" s="6" t="s">
@@ -5668,16 +5678,16 @@
         <v>4</v>
       </c>
       <c r="G208" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H208" s="12">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="57"/>
-      <c r="B209" s="41"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A209" s="43"/>
+      <c r="B209" s="45"/>
       <c r="C209" s="6" t="s">
         <v>109</v>
       </c>
@@ -5687,16 +5697,16 @@
         <v>6</v>
       </c>
       <c r="G209" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H209" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="57"/>
-      <c r="B210" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A210" s="43"/>
+      <c r="B210" s="44" t="s">
         <v>229</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -5708,16 +5718,16 @@
         <v>4</v>
       </c>
       <c r="G210" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H210" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="57"/>
-      <c r="B211" s="41"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A211" s="43"/>
+      <c r="B211" s="45"/>
       <c r="C211" s="6" t="s">
         <v>109</v>
       </c>
@@ -5727,16 +5737,16 @@
         <v>6</v>
       </c>
       <c r="G211" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H211" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="57"/>
-      <c r="B212" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A212" s="43"/>
+      <c r="B212" s="44" t="s">
         <v>230</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -5755,9 +5765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="57"/>
-      <c r="B213" s="41"/>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A213" s="43"/>
+      <c r="B213" s="45"/>
       <c r="C213" s="6" t="s">
         <v>109</v>
       </c>
@@ -5774,9 +5784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="57"/>
-      <c r="B214" s="39" t="s">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A214" s="43"/>
+      <c r="B214" s="44" t="s">
         <v>231</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -5788,16 +5798,16 @@
         <v>4</v>
       </c>
       <c r="G214" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H214" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="57"/>
-      <c r="B215" s="41"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A215" s="43"/>
+      <c r="B215" s="45"/>
       <c r="C215" s="6" t="s">
         <v>109</v>
       </c>
@@ -5807,16 +5817,16 @@
         <v>6</v>
       </c>
       <c r="G215" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H215" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="57"/>
-      <c r="B216" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A216" s="43"/>
+      <c r="B216" s="44" t="s">
         <v>232</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -5835,9 +5845,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="57"/>
-      <c r="B217" s="40"/>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A217" s="43"/>
+      <c r="B217" s="46"/>
       <c r="C217" s="6" t="s">
         <v>85</v>
       </c>
@@ -5847,16 +5857,16 @@
         <v>6</v>
       </c>
       <c r="G217" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="57"/>
-      <c r="B218" s="41"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A218" s="43"/>
+      <c r="B218" s="45"/>
       <c r="C218" s="6" t="s">
         <v>233</v>
       </c>
@@ -5873,9 +5883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="57"/>
-      <c r="B219" s="39" t="s">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A219" s="43"/>
+      <c r="B219" s="44" t="s">
         <v>234</v>
       </c>
       <c r="C219" s="6" t="s">
@@ -5887,16 +5897,16 @@
         <v>4</v>
       </c>
       <c r="G219" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H219" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="57"/>
-      <c r="B220" s="41"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A220" s="43"/>
+      <c r="B220" s="45"/>
       <c r="C220" s="6" t="s">
         <v>235</v>
       </c>
@@ -5913,9 +5923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="57"/>
-      <c r="B221" s="39" t="s">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A221" s="43"/>
+      <c r="B221" s="44" t="s">
         <v>236</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -5934,9 +5944,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="57"/>
-      <c r="B222" s="40"/>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A222" s="43"/>
+      <c r="B222" s="46"/>
       <c r="C222" s="6" t="s">
         <v>237</v>
       </c>
@@ -5953,9 +5963,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="57"/>
-      <c r="B223" s="40"/>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A223" s="43"/>
+      <c r="B223" s="46"/>
       <c r="C223" s="6" t="s">
         <v>238</v>
       </c>
@@ -5972,9 +5982,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="57"/>
-      <c r="B224" s="40"/>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A224" s="43"/>
+      <c r="B224" s="46"/>
       <c r="C224" s="15" t="s">
         <v>239</v>
       </c>
@@ -5991,9 +6001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="57"/>
-      <c r="B225" s="40"/>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A225" s="43"/>
+      <c r="B225" s="46"/>
       <c r="C225" s="6" t="s">
         <v>240</v>
       </c>
@@ -6010,9 +6020,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="57"/>
-      <c r="B226" s="41"/>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A226" s="43"/>
+      <c r="B226" s="45"/>
       <c r="C226" s="6" t="s">
         <v>241</v>
       </c>
@@ -6029,14 +6039,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="57" t="s">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A227" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="B227" s="39" t="s">
+      <c r="B227" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="C227" s="45" t="s">
+      <c r="C227" s="59" t="s">
         <v>244</v>
       </c>
       <c r="D227" s="36" t="s">
@@ -6054,10 +6064,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="57"/>
-      <c r="B228" s="40"/>
-      <c r="C228" s="46"/>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A228" s="43"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="60"/>
       <c r="D228" s="36" t="s">
         <v>245</v>
       </c>
@@ -6073,11 +6083,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="57"/>
-      <c r="B229" s="40"/>
-      <c r="C229" s="46"/>
-      <c r="D229" s="45" t="s">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A229" s="43"/>
+      <c r="B229" s="46"/>
+      <c r="C229" s="60"/>
+      <c r="D229" s="59" t="s">
         <v>246</v>
       </c>
       <c r="E229" s="36"/>
@@ -6092,11 +6102,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="57"/>
-      <c r="B230" s="40"/>
-      <c r="C230" s="46"/>
-      <c r="D230" s="46"/>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A230" s="43"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="60"/>
+      <c r="D230" s="60"/>
       <c r="E230" s="36" t="s">
         <v>247</v>
       </c>
@@ -6111,11 +6121,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="57"/>
-      <c r="B231" s="40"/>
-      <c r="C231" s="47"/>
-      <c r="D231" s="47"/>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A231" s="43"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="61"/>
+      <c r="D231" s="61"/>
       <c r="E231" s="36" t="s">
         <v>222</v>
       </c>
@@ -6130,10 +6140,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="57"/>
-      <c r="B232" s="40"/>
-      <c r="C232" s="42" t="s">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A232" s="43"/>
+      <c r="B232" s="46"/>
+      <c r="C232" s="50" t="s">
         <v>248</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -6151,10 +6161,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="57"/>
-      <c r="B233" s="40"/>
-      <c r="C233" s="43"/>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A233" s="43"/>
+      <c r="B233" s="46"/>
+      <c r="C233" s="51"/>
       <c r="D233" s="6" t="s">
         <v>249</v>
       </c>
@@ -6170,10 +6180,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="57"/>
-      <c r="B234" s="40"/>
-      <c r="C234" s="42" t="s">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A234" s="43"/>
+      <c r="B234" s="46"/>
+      <c r="C234" s="50" t="s">
         <v>250</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -6191,10 +6201,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="57"/>
-      <c r="B235" s="40"/>
-      <c r="C235" s="44"/>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A235" s="43"/>
+      <c r="B235" s="46"/>
+      <c r="C235" s="52"/>
       <c r="D235" s="6" t="s">
         <v>251</v>
       </c>
@@ -6210,11 +6220,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="57"/>
-      <c r="B236" s="40"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="42" t="s">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A236" s="43"/>
+      <c r="B236" s="46"/>
+      <c r="C236" s="52"/>
+      <c r="D236" s="50" t="s">
         <v>252</v>
       </c>
       <c r="E236" s="6" t="s">
@@ -6231,11 +6241,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="57"/>
-      <c r="B237" s="41"/>
-      <c r="C237" s="43"/>
-      <c r="D237" s="43"/>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A237" s="43"/>
+      <c r="B237" s="45"/>
+      <c r="C237" s="51"/>
+      <c r="D237" s="51"/>
       <c r="E237" s="6" t="s">
         <v>253</v>
       </c>
@@ -6250,12 +6260,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="57"/>
-      <c r="B238" s="39" t="s">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A238" s="43"/>
+      <c r="B238" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C238" s="42" t="s">
+      <c r="C238" s="50" t="s">
         <v>255</v>
       </c>
       <c r="D238" s="6" t="s">
@@ -6273,10 +6283,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="57"/>
-      <c r="B239" s="40"/>
-      <c r="C239" s="44"/>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A239" s="43"/>
+      <c r="B239" s="46"/>
+      <c r="C239" s="52"/>
       <c r="D239" s="6" t="s">
         <v>256</v>
       </c>
@@ -6292,10 +6302,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="57"/>
-      <c r="B240" s="40"/>
-      <c r="C240" s="44"/>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A240" s="43"/>
+      <c r="B240" s="46"/>
+      <c r="C240" s="52"/>
       <c r="D240" s="6" t="s">
         <v>222</v>
       </c>
@@ -6311,10 +6321,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="57"/>
-      <c r="B241" s="40"/>
-      <c r="C241" s="43"/>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A241" s="43"/>
+      <c r="B241" s="46"/>
+      <c r="C241" s="51"/>
       <c r="D241" s="15" t="s">
         <v>257</v>
       </c>
@@ -6330,10 +6340,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="57"/>
-      <c r="B242" s="40"/>
-      <c r="C242" s="42" t="s">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A242" s="43"/>
+      <c r="B242" s="46"/>
+      <c r="C242" s="50" t="s">
         <v>258</v>
       </c>
       <c r="D242" s="6" t="s">
@@ -6351,10 +6361,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="57"/>
-      <c r="B243" s="41"/>
-      <c r="C243" s="43"/>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A243" s="43"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="51"/>
       <c r="D243" s="6" t="s">
         <v>259</v>
       </c>
@@ -6370,12 +6380,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="57"/>
-      <c r="B244" s="39" t="s">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A244" s="43"/>
+      <c r="B244" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C244" s="42" t="s">
+      <c r="C244" s="50" t="s">
         <v>261</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -6393,10 +6403,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="57"/>
-      <c r="B245" s="40"/>
-      <c r="C245" s="43"/>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A245" s="43"/>
+      <c r="B245" s="46"/>
+      <c r="C245" s="51"/>
       <c r="D245" s="6" t="s">
         <v>262</v>
       </c>
@@ -6412,10 +6422,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="57"/>
-      <c r="B246" s="40"/>
-      <c r="C246" s="42" t="s">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A246" s="43"/>
+      <c r="B246" s="46"/>
+      <c r="C246" s="50" t="s">
         <v>263</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -6426,17 +6436,17 @@
         <v>2</v>
       </c>
       <c r="G246" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="57"/>
-      <c r="B247" s="40"/>
-      <c r="C247" s="44"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A247" s="43"/>
+      <c r="B247" s="46"/>
+      <c r="C247" s="52"/>
       <c r="D247" s="6" t="s">
         <v>264</v>
       </c>
@@ -6445,17 +6455,17 @@
         <v>3</v>
       </c>
       <c r="G247" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="57"/>
-      <c r="B248" s="40"/>
-      <c r="C248" s="43"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A248" s="43"/>
+      <c r="B248" s="46"/>
+      <c r="C248" s="51"/>
       <c r="D248" s="6" t="s">
         <v>265</v>
       </c>
@@ -6464,17 +6474,17 @@
         <v>3</v>
       </c>
       <c r="G248" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="57"/>
-      <c r="B249" s="40"/>
-      <c r="C249" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A249" s="43"/>
+      <c r="B249" s="46"/>
+      <c r="C249" s="50" t="s">
         <v>266</v>
       </c>
       <c r="D249" s="6" t="s">
@@ -6492,10 +6502,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="57"/>
-      <c r="B250" s="40"/>
-      <c r="C250" s="44"/>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A250" s="43"/>
+      <c r="B250" s="46"/>
+      <c r="C250" s="52"/>
       <c r="D250" s="6" t="s">
         <v>267</v>
       </c>
@@ -6511,10 +6521,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="57"/>
-      <c r="B251" s="40"/>
-      <c r="C251" s="44"/>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A251" s="43"/>
+      <c r="B251" s="46"/>
+      <c r="C251" s="52"/>
       <c r="D251" s="6" t="s">
         <v>268</v>
       </c>
@@ -6530,10 +6540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="57"/>
-      <c r="B252" s="41"/>
-      <c r="C252" s="43"/>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A252" s="43"/>
+      <c r="B252" s="45"/>
+      <c r="C252" s="51"/>
       <c r="D252" s="6" t="s">
         <v>269</v>
       </c>
@@ -6549,12 +6559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="57"/>
-      <c r="B253" s="39" t="s">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A253" s="43"/>
+      <c r="B253" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="C253" s="42" t="s">
+      <c r="C253" s="50" t="s">
         <v>271</v>
       </c>
       <c r="D253" s="6" t="s">
@@ -6572,10 +6582,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="57"/>
-      <c r="B254" s="40"/>
-      <c r="C254" s="44"/>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A254" s="43"/>
+      <c r="B254" s="46"/>
+      <c r="C254" s="52"/>
       <c r="D254" s="6" t="s">
         <v>222</v>
       </c>
@@ -6591,10 +6601,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="57"/>
-      <c r="B255" s="40"/>
-      <c r="C255" s="43"/>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A255" s="43"/>
+      <c r="B255" s="46"/>
+      <c r="C255" s="51"/>
       <c r="D255" s="6" t="s">
         <v>256</v>
       </c>
@@ -6610,9 +6620,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="57"/>
-      <c r="B256" s="41"/>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A256" s="43"/>
+      <c r="B256" s="45"/>
       <c r="C256" s="6" t="s">
         <v>272</v>
       </c>
@@ -6629,9 +6639,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="57"/>
-      <c r="B257" s="39" t="s">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A257" s="43"/>
+      <c r="B257" s="44" t="s">
         <v>273</v>
       </c>
       <c r="C257" s="6" t="s">
@@ -6650,9 +6660,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="57"/>
-      <c r="B258" s="41"/>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A258" s="43"/>
+      <c r="B258" s="45"/>
       <c r="C258" s="6" t="s">
         <v>275</v>
       </c>
@@ -6669,12 +6679,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="57"/>
-      <c r="B259" s="39" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A259" s="43"/>
+      <c r="B259" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="C259" s="42" t="s">
+      <c r="C259" s="50" t="s">
         <v>277</v>
       </c>
       <c r="D259" s="6" t="s">
@@ -6692,10 +6702,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="57"/>
-      <c r="B260" s="40"/>
-      <c r="C260" s="44"/>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A260" s="43"/>
+      <c r="B260" s="46"/>
+      <c r="C260" s="52"/>
       <c r="D260" s="6" t="s">
         <v>256</v>
       </c>
@@ -6711,10 +6721,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="57"/>
-      <c r="B261" s="40"/>
-      <c r="C261" s="44"/>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A261" s="43"/>
+      <c r="B261" s="46"/>
+      <c r="C261" s="52"/>
       <c r="D261" s="6" t="s">
         <v>222</v>
       </c>
@@ -6730,10 +6740,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="57"/>
-      <c r="B262" s="40"/>
-      <c r="C262" s="43"/>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A262" s="43"/>
+      <c r="B262" s="46"/>
+      <c r="C262" s="51"/>
       <c r="D262" s="6" t="s">
         <v>278</v>
       </c>
@@ -6749,10 +6759,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="57"/>
-      <c r="B263" s="40"/>
-      <c r="C263" s="42" t="s">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A263" s="43"/>
+      <c r="B263" s="46"/>
+      <c r="C263" s="50" t="s">
         <v>279</v>
       </c>
       <c r="D263" s="6" t="s">
@@ -6770,10 +6780,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="57"/>
-      <c r="B264" s="40"/>
-      <c r="C264" s="44"/>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A264" s="43"/>
+      <c r="B264" s="46"/>
+      <c r="C264" s="52"/>
       <c r="D264" s="6" t="s">
         <v>256</v>
       </c>
@@ -6789,10 +6799,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="57"/>
-      <c r="B265" s="40"/>
-      <c r="C265" s="43"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A265" s="43"/>
+      <c r="B265" s="46"/>
+      <c r="C265" s="51"/>
       <c r="D265" s="6" t="s">
         <v>280</v>
       </c>
@@ -6808,9 +6818,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="57"/>
-      <c r="B266" s="41"/>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A266" s="43"/>
+      <c r="B266" s="45"/>
       <c r="C266" s="6" t="s">
         <v>281</v>
       </c>
@@ -6827,12 +6837,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="57"/>
-      <c r="B267" s="39" t="s">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A267" s="43"/>
+      <c r="B267" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="C267" s="42" t="s">
+      <c r="C267" s="50" t="s">
         <v>283</v>
       </c>
       <c r="D267" s="6" t="s">
@@ -6850,10 +6860,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="57"/>
-      <c r="B268" s="40"/>
-      <c r="C268" s="43"/>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A268" s="43"/>
+      <c r="B268" s="46"/>
+      <c r="C268" s="51"/>
       <c r="D268" s="6" t="s">
         <v>284</v>
       </c>
@@ -6869,10 +6879,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="57"/>
-      <c r="B269" s="40"/>
-      <c r="C269" s="42" t="s">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A269" s="43"/>
+      <c r="B269" s="46"/>
+      <c r="C269" s="50" t="s">
         <v>285</v>
       </c>
       <c r="D269" s="6" t="s">
@@ -6890,10 +6900,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="57"/>
-      <c r="B270" s="40"/>
-      <c r="C270" s="43"/>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A270" s="43"/>
+      <c r="B270" s="46"/>
+      <c r="C270" s="51"/>
       <c r="D270" s="6" t="s">
         <v>286</v>
       </c>
@@ -6909,10 +6919,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="57"/>
-      <c r="B271" s="40"/>
-      <c r="C271" s="42" t="s">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A271" s="43"/>
+      <c r="B271" s="46"/>
+      <c r="C271" s="50" t="s">
         <v>287</v>
       </c>
       <c r="D271" s="6" t="s">
@@ -6923,17 +6933,17 @@
         <v>3</v>
       </c>
       <c r="G271" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H271" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="57"/>
-      <c r="B272" s="40"/>
-      <c r="C272" s="43"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A272" s="43"/>
+      <c r="B272" s="46"/>
+      <c r="C272" s="51"/>
       <c r="D272" s="6" t="s">
         <v>286</v>
       </c>
@@ -6942,17 +6952,17 @@
         <v>5</v>
       </c>
       <c r="G272" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H272" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="57"/>
-      <c r="B273" s="40"/>
-      <c r="C273" s="42" t="s">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A273" s="43"/>
+      <c r="B273" s="46"/>
+      <c r="C273" s="50" t="s">
         <v>288</v>
       </c>
       <c r="D273" s="6" t="s">
@@ -6963,17 +6973,17 @@
         <v>3</v>
       </c>
       <c r="G273" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H273" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="57"/>
-      <c r="B274" s="41"/>
-      <c r="C274" s="43"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A274" s="43"/>
+      <c r="B274" s="45"/>
+      <c r="C274" s="51"/>
       <c r="D274" s="6" t="s">
         <v>289</v>
       </c>
@@ -6982,19 +6992,19 @@
         <v>5</v>
       </c>
       <c r="G274" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H274" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="57"/>
-      <c r="B275" s="39" t="s">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A275" s="43"/>
+      <c r="B275" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="C275" s="42" t="s">
+      <c r="C275" s="50" t="s">
         <v>239</v>
       </c>
       <c r="D275" s="6" t="s">
@@ -7012,10 +7022,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="57"/>
-      <c r="B276" s="40"/>
-      <c r="C276" s="44"/>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A276" s="43"/>
+      <c r="B276" s="46"/>
+      <c r="C276" s="52"/>
       <c r="D276" s="6" t="s">
         <v>291</v>
       </c>
@@ -7031,10 +7041,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="57"/>
-      <c r="B277" s="40"/>
-      <c r="C277" s="44"/>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A277" s="43"/>
+      <c r="B277" s="46"/>
+      <c r="C277" s="52"/>
       <c r="D277" s="6" t="s">
         <v>292</v>
       </c>
@@ -7049,10 +7059,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="57"/>
-      <c r="B278" s="40"/>
-      <c r="C278" s="44"/>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A278" s="43"/>
+      <c r="B278" s="46"/>
+      <c r="C278" s="52"/>
       <c r="D278" s="6" t="s">
         <v>293</v>
       </c>
@@ -7067,10 +7077,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="57"/>
-      <c r="B279" s="40"/>
-      <c r="C279" s="43"/>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A279" s="43"/>
+      <c r="B279" s="46"/>
+      <c r="C279" s="51"/>
       <c r="D279" s="6" t="s">
         <v>222</v>
       </c>
@@ -7086,10 +7096,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="57"/>
-      <c r="B280" s="40"/>
-      <c r="C280" s="42" t="s">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A280" s="43"/>
+      <c r="B280" s="46"/>
+      <c r="C280" s="50" t="s">
         <v>294</v>
       </c>
       <c r="D280" s="6" t="s">
@@ -7107,10 +7117,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="57"/>
-      <c r="B281" s="40"/>
-      <c r="C281" s="44"/>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A281" s="43"/>
+      <c r="B281" s="46"/>
+      <c r="C281" s="52"/>
       <c r="D281" s="6" t="s">
         <v>295</v>
       </c>
@@ -7126,10 +7136,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="57"/>
-      <c r="B282" s="40"/>
-      <c r="C282" s="43"/>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A282" s="43"/>
+      <c r="B282" s="46"/>
+      <c r="C282" s="51"/>
       <c r="D282" s="6" t="s">
         <v>296</v>
       </c>
@@ -7145,10 +7155,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="57"/>
-      <c r="B283" s="40"/>
-      <c r="C283" s="39" t="s">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A283" s="43"/>
+      <c r="B283" s="46"/>
+      <c r="C283" s="44" t="s">
         <v>297</v>
       </c>
       <c r="D283" s="6" t="s">
@@ -7166,10 +7176,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="57"/>
-      <c r="B284" s="40"/>
-      <c r="C284" s="40"/>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A284" s="43"/>
+      <c r="B284" s="46"/>
+      <c r="C284" s="46"/>
       <c r="D284" s="6" t="s">
         <v>299</v>
       </c>
@@ -7185,10 +7195,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="57"/>
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A285" s="43"/>
+      <c r="B285" s="46"/>
+      <c r="C285" s="46"/>
       <c r="D285" s="6" t="s">
         <v>300</v>
       </c>
@@ -7204,10 +7214,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="57"/>
-      <c r="B286" s="40"/>
-      <c r="C286" s="41"/>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A286" s="43"/>
+      <c r="B286" s="46"/>
+      <c r="C286" s="45"/>
       <c r="D286" s="20" t="s">
         <v>301</v>
       </c>
@@ -7223,10 +7233,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
-      <c r="A287" s="57"/>
-      <c r="B287" s="40"/>
-      <c r="C287" s="42" t="s">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A287" s="43"/>
+      <c r="B287" s="46"/>
+      <c r="C287" s="50" t="s">
         <v>302</v>
       </c>
       <c r="D287" s="6" t="s">
@@ -7244,10 +7254,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="57"/>
-      <c r="B288" s="41"/>
-      <c r="C288" s="43"/>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A288" s="43"/>
+      <c r="B288" s="45"/>
+      <c r="C288" s="51"/>
       <c r="D288" s="6" t="s">
         <v>303</v>
       </c>
@@ -7262,8 +7272,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
-      <c r="A289" s="57"/>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A289" s="43"/>
       <c r="B289" s="6" t="s">
         <v>194</v>
       </c>
@@ -7281,8 +7291,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
-      <c r="A290" s="54" t="s">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A290" s="47" t="s">
         <v>304</v>
       </c>
       <c r="B290" s="36" t="s">
@@ -7302,8 +7312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
-      <c r="A291" s="55"/>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A291" s="48"/>
       <c r="B291" s="36" t="s">
         <v>306</v>
       </c>
@@ -7324,8 +7334,8 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
-      <c r="A292" s="55"/>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A292" s="48"/>
       <c r="B292" s="6" t="s">
         <v>307</v>
       </c>
@@ -7346,8 +7356,8 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
-      <c r="A293" s="55"/>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A293" s="48"/>
       <c r="B293" s="6" t="s">
         <v>308</v>
       </c>
@@ -7368,8 +7378,8 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
-      <c r="A294" s="55"/>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A294" s="48"/>
       <c r="B294" s="6" t="s">
         <v>78</v>
       </c>
@@ -7390,8 +7400,8 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
-      <c r="A295" s="55"/>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A295" s="48"/>
       <c r="B295" s="6" t="s">
         <v>309</v>
       </c>
@@ -7412,8 +7422,8 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
-      <c r="A296" s="56"/>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A296" s="49"/>
       <c r="B296" s="6" t="s">
         <v>310</v>
       </c>
@@ -7435,8 +7445,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
-      <c r="A297" s="57" t="s">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A297" s="43" t="s">
         <v>311</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -7460,8 +7470,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
-      <c r="A298" s="57"/>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A298" s="43"/>
       <c r="B298" s="21" t="s">
         <v>313</v>
       </c>
@@ -7483,8 +7493,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
-      <c r="A299" s="57"/>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A299" s="43"/>
       <c r="B299" s="21" t="s">
         <v>314</v>
       </c>
@@ -7502,8 +7512,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
-      <c r="A300" s="57"/>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A300" s="43"/>
       <c r="B300" s="6" t="s">
         <v>315</v>
       </c>
@@ -7521,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301" s="22"/>
       <c r="B301" s="23"/>
       <c r="C301" s="23"/>
@@ -7531,7 +7541,7 @@
       <c r="G301" s="25"/>
       <c r="H301" s="26"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302" s="22"/>
       <c r="B302" s="23"/>
       <c r="C302" s="23"/>
@@ -7541,7 +7551,7 @@
       <c r="G302" s="25"/>
       <c r="H302" s="26"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303" s="22"/>
       <c r="B303" s="23"/>
       <c r="C303" s="23"/>
@@ -7562,7 +7572,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304" s="23"/>
       <c r="B304" s="28"/>
       <c r="C304" s="28"/>
@@ -7572,35 +7582,35 @@
       </c>
       <c r="F304" s="7">
         <f>SUM(F4:F300)</f>
-        <v>1227.25</v>
+        <v>1169.75</v>
       </c>
       <c r="G304" s="29">
         <f>H304/F304</f>
-        <v>0.5210429822774495</v>
+        <v>0.63513571275913638</v>
       </c>
       <c r="H304" s="12">
         <f>SUM(H4:H300)</f>
-        <v>639.44999999999993</v>
+        <v>742.94999999999982</v>
       </c>
       <c r="I304" s="35">
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="305" spans="5:9">
+    <row r="305" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E305" s="30" t="s">
         <v>321</v>
       </c>
       <c r="F305" s="31">
         <f>SUM(F25:F289)</f>
-        <v>676.25</v>
+        <v>618.75</v>
       </c>
       <c r="G305" s="32">
         <f>H305/F305</f>
-        <v>0.50935304990757857</v>
+        <v>0.72395959595959603</v>
       </c>
       <c r="H305" s="31">
         <f>SUM(H25:H289)</f>
-        <v>344.45000000000005</v>
+        <v>447.95000000000005</v>
       </c>
       <c r="I305" s="35">
         <v>4.8000000000000001E-2</v>
@@ -7608,6 +7618,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="C275:C279"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C249:C252"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C175:C180"/>
+    <mergeCell ref="C183:C189"/>
+    <mergeCell ref="C227:C231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C146:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C145"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="B275:B288"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C53:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A290:A296"/>
+    <mergeCell ref="A297:A300"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="B45:B75"/>
+    <mergeCell ref="B76:B119"/>
+    <mergeCell ref="B120:B180"/>
+    <mergeCell ref="B182:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:A22"/>
     <mergeCell ref="A26:A180"/>
@@ -7624,83 +7708,9 @@
     <mergeCell ref="B257:B258"/>
     <mergeCell ref="B259:B266"/>
     <mergeCell ref="B267:B274"/>
-    <mergeCell ref="A290:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="B45:B75"/>
-    <mergeCell ref="B76:B119"/>
-    <mergeCell ref="B120:B180"/>
-    <mergeCell ref="B182:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B275:B288"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C53:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="C146:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C175:C180"/>
-    <mergeCell ref="C183:C189"/>
-    <mergeCell ref="C227:C231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="C275:C279"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C249:C252"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="C263:C265"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3.ehome/02-项目计划/工作进度评估2017-07-03孙留成.xlsx
+++ b/3.ehome/02-项目计划/工作进度评估2017-07-03孙留成.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="323">
   <si>
     <t>工作量完成评估</t>
   </si>
@@ -980,6 +980,10 @@
   </si>
   <si>
     <t>开发进度</t>
+  </si>
+  <si>
+    <t>握手金融</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1252,6 +1256,66 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,66 +1327,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K305"/>
+  <dimension ref="A2:K306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G304" sqref="G304"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1647,15 +1651,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -1762,7 +1766,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1783,7 +1787,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="41"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1802,7 +1806,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="41"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1825,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="41"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1844,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="41"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1863,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1882,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="41"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1897,7 +1901,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="41"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +1920,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1935,7 +1939,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="41"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +1958,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="41"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1973,7 +1977,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="41"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="41"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2015,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="41"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -2030,7 +2034,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="42"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
@@ -2106,10 +2110,10 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2129,8 +2133,8 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
@@ -2148,9 +2152,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="50" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2169,9 +2173,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="6" t="s">
         <v>39</v>
       </c>
@@ -2188,9 +2192,9 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="50" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -2209,9 +2213,9 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="6" t="s">
         <v>41</v>
       </c>
@@ -2228,8 +2232,8 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2251,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
@@ -2266,8 +2270,8 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="43"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="6" t="s">
         <v>44</v>
       </c>
@@ -2277,16 +2281,16 @@
         <v>3</v>
       </c>
       <c r="G34" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H34" s="12">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2306,9 +2310,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="50" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -2327,9 +2331,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="43"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="6" t="s">
         <v>49</v>
       </c>
@@ -2346,8 +2350,8 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="43"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6" t="s">
         <v>50</v>
       </c>
@@ -2365,8 +2369,8 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="6" t="s">
         <v>51</v>
       </c>
@@ -2376,16 +2380,16 @@
         <v>2</v>
       </c>
       <c r="G39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
@@ -2395,16 +2399,16 @@
         <v>2</v>
       </c>
       <c r="G40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="43"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="6" t="s">
         <v>53</v>
       </c>
@@ -2422,9 +2426,9 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="43"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="50" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -2443,9 +2447,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="43"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="6" t="s">
         <v>56</v>
       </c>
@@ -2462,8 +2466,8 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="43"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="6" t="s">
         <v>57</v>
       </c>
@@ -2481,8 +2485,8 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -2502,9 +2506,9 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="43"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="50" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -2523,9 +2527,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="43"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="51"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="6" t="s">
         <v>49</v>
       </c>
@@ -2542,9 +2546,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="43"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="50" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="43" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -2563,9 +2567,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="43"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="51"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="6" t="s">
         <v>63</v>
       </c>
@@ -2582,8 +2586,8 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="43"/>
-      <c r="B50" s="46"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="6" t="s">
         <v>64</v>
       </c>
@@ -2603,8 +2607,8 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="43"/>
-      <c r="B51" s="46"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="6" t="s">
         <v>66</v>
       </c>
@@ -2624,8 +2628,8 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="43"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="6" t="s">
         <v>68</v>
       </c>
@@ -2643,9 +2647,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="43"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="50" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -2664,10 +2668,10 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="43"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="50" t="s">
+      <c r="A54" s="58"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="43" t="s">
         <v>71</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -2685,10 +2689,10 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="43"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="6" t="s">
         <v>73</v>
       </c>
@@ -2704,10 +2708,10 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="43"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="6" t="s">
         <v>74</v>
       </c>
@@ -2723,10 +2727,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="43"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="51"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="6" t="s">
         <v>75</v>
       </c>
@@ -2742,10 +2746,10 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="43"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="50" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="43" t="s">
         <v>76</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -2763,10 +2767,10 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="43"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="6" t="s">
         <v>72</v>
       </c>
@@ -2782,10 +2786,10 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="43"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="6" t="s">
         <v>77</v>
       </c>
@@ -2801,10 +2805,10 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="43"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="51"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="6" t="s">
         <v>75</v>
       </c>
@@ -2820,10 +2824,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="43"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="50" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="43" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -2841,10 +2845,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="43"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="6" t="s">
         <v>79</v>
       </c>
@@ -2860,10 +2864,10 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="43"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="6" t="s">
         <v>80</v>
       </c>
@@ -2879,9 +2883,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="43"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="50" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="43" t="s">
         <v>81</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -2900,9 +2904,9 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="43"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="52"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="6" t="s">
         <v>72</v>
       </c>
@@ -2919,9 +2923,9 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="43"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="51"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="6" t="s">
         <v>82</v>
       </c>
@@ -2938,9 +2942,9 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="43"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="50" t="s">
+      <c r="A68" s="58"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="43" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2959,9 +2963,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="52"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="6" t="s">
         <v>72</v>
       </c>
@@ -2978,9 +2982,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="43"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="6" t="s">
         <v>82</v>
       </c>
@@ -2997,9 +3001,9 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="43"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="50" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="43" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -3018,9 +3022,9 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="51"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="6" t="s">
         <v>85</v>
       </c>
@@ -3037,8 +3041,8 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="43"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="15" t="s">
         <v>86</v>
       </c>
@@ -3056,8 +3060,8 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="43"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="15" t="s">
         <v>87</v>
       </c>
@@ -3075,8 +3079,8 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="43"/>
-      <c r="B75" s="45"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="15" t="s">
         <v>88</v>
       </c>
@@ -3094,11 +3098,11 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="43"/>
-      <c r="B76" s="44" t="s">
+      <c r="A76" s="58"/>
+      <c r="B76" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="43" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -3117,9 +3121,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="43"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="52"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="6" t="s">
         <v>91</v>
       </c>
@@ -3136,9 +3140,9 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="43"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="52"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="6" t="s">
         <v>92</v>
       </c>
@@ -3155,9 +3159,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="43"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="52"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="6" t="s">
         <v>93</v>
       </c>
@@ -3174,9 +3178,9 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="43"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="52"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="6" t="s">
         <v>94</v>
       </c>
@@ -3193,9 +3197,9 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="43"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="51"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="6" t="s">
         <v>95</v>
       </c>
@@ -3212,9 +3216,9 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="43"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="50" t="s">
+      <c r="A82" s="58"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="43" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -3233,9 +3237,9 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="43"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="52"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="6" t="s">
         <v>97</v>
       </c>
@@ -3252,9 +3256,9 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="43"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="52"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="6" t="s">
         <v>98</v>
       </c>
@@ -3271,9 +3275,9 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="43"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="52"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="6" t="s">
         <v>99</v>
       </c>
@@ -3290,9 +3294,9 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="43"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="52"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="6" t="s">
         <v>100</v>
       </c>
@@ -3309,9 +3313,9 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="43"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="52"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="6" t="s">
         <v>101</v>
       </c>
@@ -3328,9 +3332,9 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="43"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="52"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="6" t="s">
         <v>102</v>
       </c>
@@ -3339,17 +3343,17 @@
         <v>4</v>
       </c>
       <c r="G88" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H88" s="12">
         <f t="shared" si="2"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="43"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="6" t="s">
         <v>103</v>
       </c>
@@ -3358,17 +3362,17 @@
         <v>12</v>
       </c>
       <c r="G89" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H89" s="12">
         <f t="shared" si="2"/>
-        <v>9.6000000000000014</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="43"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="51"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="6" t="s">
         <v>104</v>
       </c>
@@ -3377,17 +3381,17 @@
         <v>6</v>
       </c>
       <c r="G90" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" ref="H90:H153" si="3">G90*F90</f>
-        <v>4.8000000000000007</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="43"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="50" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="43" t="s">
         <v>105</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -3406,9 +3410,9 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="43"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="52"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="6" t="s">
         <v>107</v>
       </c>
@@ -3425,9 +3429,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="43"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="6" t="s">
         <v>108</v>
       </c>
@@ -3444,9 +3448,9 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="43"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="52"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="6" t="s">
         <v>100</v>
       </c>
@@ -3463,9 +3467,9 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="43"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="52"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="6" t="s">
         <v>102</v>
       </c>
@@ -3474,17 +3478,17 @@
         <v>4</v>
       </c>
       <c r="G95" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H95" s="12">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="43"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="51"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="6" t="s">
         <v>109</v>
       </c>
@@ -3501,9 +3505,9 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="43"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="50" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="43" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -3522,9 +3526,9 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="43"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="52"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="45"/>
       <c r="D98" s="6" t="s">
         <v>111</v>
       </c>
@@ -3541,9 +3545,9 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="43"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="52"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="6" t="s">
         <v>112</v>
       </c>
@@ -3560,9 +3564,9 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="43"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="52"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="6" t="s">
         <v>100</v>
       </c>
@@ -3579,9 +3583,9 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="43"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="52"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="6" t="s">
         <v>102</v>
       </c>
@@ -3590,17 +3594,17 @@
         <v>4</v>
       </c>
       <c r="G101" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H101" s="12">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="43"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="6" t="s">
         <v>109</v>
       </c>
@@ -3617,9 +3621,9 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="43"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="50" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="43" t="s">
         <v>113</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -3638,9 +3642,9 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="43"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="52"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="45"/>
       <c r="D104" s="6" t="s">
         <v>114</v>
       </c>
@@ -3657,9 +3661,9 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="43"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="52"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="6" t="s">
         <v>113</v>
       </c>
@@ -3676,9 +3680,9 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="43"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="51"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="44"/>
       <c r="D106" s="6" t="s">
         <v>102</v>
       </c>
@@ -3695,9 +3699,9 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="43"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="50" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="43" t="s">
         <v>115</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -3716,9 +3720,9 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="43"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="52"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="6" t="s">
         <v>117</v>
       </c>
@@ -3735,9 +3739,9 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="43"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="51"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="44"/>
       <c r="D109" s="6" t="s">
         <v>118</v>
       </c>
@@ -3746,16 +3750,16 @@
         <v>2</v>
       </c>
       <c r="G109" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H109" s="12">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="43"/>
-      <c r="B110" s="46"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="6" t="s">
         <v>119</v>
       </c>
@@ -3773,9 +3777,9 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="43"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="50" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -3794,9 +3798,9 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="43"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="52"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="6" t="s">
         <v>121</v>
       </c>
@@ -3813,9 +3817,9 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="43"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="52"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="45"/>
       <c r="D113" s="6" t="s">
         <v>122</v>
       </c>
@@ -3832,9 +3836,9 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="43"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="51"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="6" t="s">
         <v>123</v>
       </c>
@@ -3851,9 +3855,9 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="43"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="50" t="s">
+      <c r="A115" s="58"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="43" t="s">
         <v>124</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -3864,17 +3868,17 @@
         <v>1</v>
       </c>
       <c r="G115" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="43"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="52"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="45"/>
       <c r="D116" s="6" t="s">
         <v>126</v>
       </c>
@@ -3883,17 +3887,17 @@
         <v>1</v>
       </c>
       <c r="G116" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="43"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="52"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="45"/>
       <c r="D117" s="6" t="s">
         <v>127</v>
       </c>
@@ -3902,17 +3906,17 @@
         <v>1</v>
       </c>
       <c r="G117" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="43"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="52"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="45"/>
       <c r="D118" s="6" t="s">
         <v>128</v>
       </c>
@@ -3921,17 +3925,17 @@
         <v>1</v>
       </c>
       <c r="G118" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="43"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="51"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="6" t="s">
         <v>129</v>
       </c>
@@ -3948,11 +3952,11 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="43"/>
-      <c r="B120" s="44" t="s">
+      <c r="A120" s="58"/>
+      <c r="B120" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C120" s="43" t="s">
         <v>45</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -3971,9 +3975,9 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="43"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="51"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="44"/>
       <c r="D121" s="6" t="s">
         <v>132</v>
       </c>
@@ -3990,9 +3994,9 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="43"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="50" t="s">
+      <c r="A122" s="58"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="43" t="s">
         <v>133</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -4011,9 +4015,9 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="43"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="51"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="44"/>
       <c r="D123" s="6" t="s">
         <v>135</v>
       </c>
@@ -4030,9 +4034,9 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="43"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="50" t="s">
+      <c r="A124" s="58"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="43" t="s">
         <v>136</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -4051,9 +4055,9 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="43"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="51"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="44"/>
       <c r="D125" s="6" t="s">
         <v>138</v>
       </c>
@@ -4070,9 +4074,9 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="43"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="50" t="s">
+      <c r="A126" s="58"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="43" t="s">
         <v>139</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -4091,9 +4095,9 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="43"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="52"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="45"/>
       <c r="D127" s="6" t="s">
         <v>141</v>
       </c>
@@ -4110,9 +4114,9 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="43"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="51"/>
+      <c r="A128" s="58"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="44"/>
       <c r="D128" s="6" t="s">
         <v>142</v>
       </c>
@@ -4129,9 +4133,9 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="43"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="50" t="s">
+      <c r="A129" s="58"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -4150,9 +4154,9 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="43"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="52"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="45"/>
       <c r="D130" s="6" t="s">
         <v>144</v>
       </c>
@@ -4169,9 +4173,9 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="43"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="52"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="45"/>
       <c r="D131" s="6" t="s">
         <v>145</v>
       </c>
@@ -4188,9 +4192,9 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="43"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="52"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="45"/>
       <c r="D132" s="6" t="s">
         <v>146</v>
       </c>
@@ -4207,9 +4211,9 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="43"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="51"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="44"/>
       <c r="D133" s="6" t="s">
         <v>147</v>
       </c>
@@ -4226,9 +4230,9 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="43"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="50" t="s">
+      <c r="A134" s="58"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="43" t="s">
         <v>148</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -4247,9 +4251,9 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="43"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="52"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="45"/>
       <c r="D135" s="6" t="s">
         <v>150</v>
       </c>
@@ -4266,9 +4270,9 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="43"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="51"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="44"/>
       <c r="D136" s="6" t="s">
         <v>151</v>
       </c>
@@ -4285,9 +4289,9 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="43"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="50" t="s">
+      <c r="A137" s="58"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="43" t="s">
         <v>152</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -4306,9 +4310,9 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="43"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="52"/>
+      <c r="A138" s="58"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="45"/>
       <c r="D138" s="6" t="s">
         <v>154</v>
       </c>
@@ -4325,9 +4329,9 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="43"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="52"/>
+      <c r="A139" s="58"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="6" t="s">
         <v>155</v>
       </c>
@@ -4344,9 +4348,9 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="43"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="52"/>
+      <c r="A140" s="58"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="45"/>
       <c r="D140" s="6" t="s">
         <v>156</v>
       </c>
@@ -4363,9 +4367,9 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="43"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="52"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="45"/>
       <c r="D141" s="6" t="s">
         <v>157</v>
       </c>
@@ -4382,9 +4386,9 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="43"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="52"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="45"/>
       <c r="D142" s="6" t="s">
         <v>158</v>
       </c>
@@ -4401,9 +4405,9 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="43"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="52"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="45"/>
       <c r="D143" s="6" t="s">
         <v>159</v>
       </c>
@@ -4420,9 +4424,9 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="43"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="52"/>
+      <c r="A144" s="58"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="45"/>
       <c r="D144" s="6" t="s">
         <v>160</v>
       </c>
@@ -4439,9 +4443,9 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="43"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="51"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="44"/>
       <c r="D145" s="6" t="s">
         <v>161</v>
       </c>
@@ -4458,9 +4462,9 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="43"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="53" t="s">
+      <c r="A146" s="58"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="52" t="s">
         <v>162</v>
       </c>
       <c r="D146" s="16" t="s">
@@ -4479,9 +4483,9 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="43"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="54"/>
+      <c r="A147" s="58"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="53"/>
       <c r="D147" s="16" t="s">
         <v>164</v>
       </c>
@@ -4498,9 +4502,9 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="43"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="54"/>
+      <c r="A148" s="58"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="53"/>
       <c r="D148" s="16" t="s">
         <v>165</v>
       </c>
@@ -4519,9 +4523,9 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="43"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="54"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="53"/>
       <c r="D149" s="15"/>
       <c r="E149" s="16" t="s">
         <v>166</v>
@@ -4538,9 +4542,9 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="43"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="54"/>
+      <c r="A150" s="58"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="53"/>
       <c r="D150" s="15"/>
       <c r="E150" s="16" t="s">
         <v>167</v>
@@ -4557,9 +4561,9 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="43"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="54"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="53"/>
       <c r="D151" s="16" t="s">
         <v>168</v>
       </c>
@@ -4578,9 +4582,9 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="43"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="54"/>
+      <c r="A152" s="58"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="53"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16" t="s">
         <v>169</v>
@@ -4597,9 +4601,9 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="43"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="54"/>
+      <c r="A153" s="58"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="53"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16" t="s">
         <v>170</v>
@@ -4616,9 +4620,9 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="43"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="54"/>
+      <c r="A154" s="58"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="53"/>
       <c r="D154" s="16" t="s">
         <v>171</v>
       </c>
@@ -4637,9 +4641,9 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="43"/>
-      <c r="B155" s="46"/>
-      <c r="C155" s="54"/>
+      <c r="A155" s="58"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="53"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16" t="s">
         <v>172</v>
@@ -4656,9 +4660,9 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="43"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="54"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="53"/>
       <c r="D156" s="16" t="s">
         <v>173</v>
       </c>
@@ -4677,9 +4681,9 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="43"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="54"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="53"/>
       <c r="D157" s="16"/>
       <c r="E157" s="15" t="s">
         <v>174</v>
@@ -4696,9 +4700,9 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="43"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="55"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="16" t="s">
         <v>175</v>
       </c>
@@ -4715,9 +4719,9 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="43"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="56" t="s">
+      <c r="A159" s="58"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="49" t="s">
         <v>176</v>
       </c>
       <c r="D159" s="7" t="s">
@@ -4736,9 +4740,9 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="43"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="57"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="50"/>
       <c r="D160" s="7" t="s">
         <v>178</v>
       </c>
@@ -4755,9 +4759,9 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="43"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="57"/>
+      <c r="A161" s="58"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="50"/>
       <c r="D161" s="7" t="s">
         <v>179</v>
       </c>
@@ -4774,9 +4778,9 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="43"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="58"/>
+      <c r="A162" s="58"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="51"/>
       <c r="D162" s="7" t="s">
         <v>180</v>
       </c>
@@ -4793,9 +4797,9 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="43"/>
-      <c r="B163" s="46"/>
-      <c r="C163" s="56" t="s">
+      <c r="A163" s="58"/>
+      <c r="B163" s="41"/>
+      <c r="C163" s="49" t="s">
         <v>181</v>
       </c>
       <c r="D163" s="7" t="s">
@@ -4814,9 +4818,9 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="43"/>
-      <c r="B164" s="46"/>
-      <c r="C164" s="57"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="50"/>
       <c r="D164" s="7" t="s">
         <v>182</v>
       </c>
@@ -4833,9 +4837,9 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="43"/>
-      <c r="B165" s="46"/>
-      <c r="C165" s="58"/>
+      <c r="A165" s="58"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="51"/>
       <c r="D165" s="7" t="s">
         <v>183</v>
       </c>
@@ -4852,9 +4856,9 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="43"/>
-      <c r="B166" s="46"/>
-      <c r="C166" s="56" t="s">
+      <c r="A166" s="58"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="49" t="s">
         <v>184</v>
       </c>
       <c r="D166" s="7" t="s">
@@ -4873,9 +4877,9 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="43"/>
-      <c r="B167" s="46"/>
-      <c r="C167" s="57"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="7" t="s">
         <v>185</v>
       </c>
@@ -4892,9 +4896,9 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="43"/>
-      <c r="B168" s="46"/>
-      <c r="C168" s="58"/>
+      <c r="A168" s="58"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="51"/>
       <c r="D168" s="7" t="s">
         <v>183</v>
       </c>
@@ -4911,9 +4915,9 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="43"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="56" t="s">
+      <c r="A169" s="58"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="49" t="s">
         <v>186</v>
       </c>
       <c r="D169" s="7" t="s">
@@ -4932,9 +4936,9 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="43"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="58"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="51"/>
       <c r="D170" s="7" t="s">
         <v>188</v>
       </c>
@@ -4951,9 +4955,9 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="43"/>
-      <c r="B171" s="46"/>
-      <c r="C171" s="56" t="s">
+      <c r="A171" s="58"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D171" s="7" t="s">
@@ -4972,9 +4976,9 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="43"/>
-      <c r="B172" s="46"/>
-      <c r="C172" s="57"/>
+      <c r="A172" s="58"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="50"/>
       <c r="D172" s="7" t="s">
         <v>190</v>
       </c>
@@ -4991,9 +4995,9 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="43"/>
-      <c r="B173" s="46"/>
-      <c r="C173" s="58"/>
+      <c r="A173" s="58"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="51"/>
       <c r="D173" s="7" t="s">
         <v>191</v>
       </c>
@@ -5010,8 +5014,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="43"/>
-      <c r="B174" s="46"/>
+      <c r="A174" s="58"/>
+      <c r="B174" s="41"/>
       <c r="C174" s="18" t="s">
         <v>192</v>
       </c>
@@ -5029,9 +5033,9 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="43"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="56" t="s">
+      <c r="A175" s="58"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="49" t="s">
         <v>193</v>
       </c>
       <c r="D175" s="7" t="s">
@@ -5039,7 +5043,7 @@
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G175" s="8">
         <v>0</v>
@@ -5050,9 +5054,9 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="43"/>
-      <c r="B176" s="46"/>
-      <c r="C176" s="57"/>
+      <c r="A176" s="58"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="50"/>
       <c r="D176" s="7" t="s">
         <v>194</v>
       </c>
@@ -5069,9 +5073,9 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="43"/>
-      <c r="B177" s="46"/>
-      <c r="C177" s="57"/>
+      <c r="A177" s="58"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="50"/>
       <c r="D177" s="7" t="s">
         <v>195</v>
       </c>
@@ -5088,9 +5092,9 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="43"/>
-      <c r="B178" s="46"/>
-      <c r="C178" s="57"/>
+      <c r="A178" s="58"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="50"/>
       <c r="D178" s="7" t="s">
         <v>196</v>
       </c>
@@ -5107,9 +5111,9 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="43"/>
-      <c r="B179" s="46"/>
-      <c r="C179" s="57"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="50"/>
       <c r="D179" s="7" t="s">
         <v>197</v>
       </c>
@@ -5126,9 +5130,9 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="43"/>
-      <c r="B180" s="45"/>
-      <c r="C180" s="58"/>
+      <c r="A180" s="58"/>
+      <c r="B180" s="42"/>
+      <c r="C180" s="51"/>
       <c r="D180" s="7" t="s">
         <v>198</v>
       </c>
@@ -5145,7 +5149,7 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="58" t="s">
         <v>199</v>
       </c>
       <c r="B181" s="19" t="s">
@@ -5166,8 +5170,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="43"/>
-      <c r="B182" s="44" t="s">
+      <c r="A182" s="58"/>
+      <c r="B182" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C182" s="17" t="s">
@@ -5187,9 +5191,9 @@
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="43"/>
-      <c r="B183" s="46"/>
-      <c r="C183" s="56" t="s">
+      <c r="A183" s="58"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="17" t="s">
@@ -5208,9 +5212,9 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="43"/>
-      <c r="B184" s="46"/>
-      <c r="C184" s="57"/>
+      <c r="A184" s="58"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="50"/>
       <c r="D184" s="17" t="s">
         <v>203</v>
       </c>
@@ -5227,9 +5231,9 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="43"/>
-      <c r="B185" s="46"/>
-      <c r="C185" s="57"/>
+      <c r="A185" s="58"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="50"/>
       <c r="D185" s="17" t="s">
         <v>204</v>
       </c>
@@ -5246,9 +5250,9 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="43"/>
-      <c r="B186" s="46"/>
-      <c r="C186" s="57"/>
+      <c r="A186" s="58"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="50"/>
       <c r="D186" s="17" t="s">
         <v>205</v>
       </c>
@@ -5265,9 +5269,9 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="43"/>
-      <c r="B187" s="46"/>
-      <c r="C187" s="57"/>
+      <c r="A187" s="58"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="50"/>
       <c r="D187" s="17" t="s">
         <v>206</v>
       </c>
@@ -5284,9 +5288,9 @@
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="43"/>
-      <c r="B188" s="46"/>
-      <c r="C188" s="57"/>
+      <c r="A188" s="58"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="50"/>
       <c r="D188" s="17" t="s">
         <v>207</v>
       </c>
@@ -5303,9 +5307,9 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="43"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="58"/>
+      <c r="A189" s="58"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="51"/>
       <c r="D189" s="17" t="s">
         <v>208</v>
       </c>
@@ -5322,8 +5326,8 @@
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="43"/>
-      <c r="B190" s="44" t="s">
+      <c r="A190" s="58"/>
+      <c r="B190" s="40" t="s">
         <v>209</v>
       </c>
       <c r="C190" s="17" t="s">
@@ -5343,8 +5347,8 @@
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="43"/>
-      <c r="B191" s="46"/>
+      <c r="A191" s="58"/>
+      <c r="B191" s="41"/>
       <c r="C191" s="17" t="s">
         <v>211</v>
       </c>
@@ -5362,8 +5366,8 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="43"/>
-      <c r="B192" s="46"/>
+      <c r="A192" s="58"/>
+      <c r="B192" s="41"/>
       <c r="C192" s="17" t="s">
         <v>212</v>
       </c>
@@ -5381,8 +5385,8 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="43"/>
-      <c r="B193" s="46"/>
+      <c r="A193" s="58"/>
+      <c r="B193" s="41"/>
       <c r="C193" s="17" t="s">
         <v>213</v>
       </c>
@@ -5400,8 +5404,8 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="43"/>
-      <c r="B194" s="45"/>
+      <c r="A194" s="58"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="17" t="s">
         <v>214</v>
       </c>
@@ -5419,8 +5423,8 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="43"/>
-      <c r="B195" s="44" t="s">
+      <c r="A195" s="58"/>
+      <c r="B195" s="40" t="s">
         <v>215</v>
       </c>
       <c r="C195" s="17" t="s">
@@ -5440,8 +5444,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="43"/>
-      <c r="B196" s="46"/>
+      <c r="A196" s="58"/>
+      <c r="B196" s="41"/>
       <c r="C196" s="17" t="s">
         <v>217</v>
       </c>
@@ -5459,8 +5463,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="43"/>
-      <c r="B197" s="46"/>
+      <c r="A197" s="58"/>
+      <c r="B197" s="41"/>
       <c r="C197" s="17" t="s">
         <v>218</v>
       </c>
@@ -5478,8 +5482,8 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="43"/>
-      <c r="B198" s="45"/>
+      <c r="A198" s="58"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="17" t="s">
         <v>219</v>
       </c>
@@ -5497,8 +5501,8 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="43"/>
-      <c r="B199" s="44" t="s">
+      <c r="A199" s="58"/>
+      <c r="B199" s="40" t="s">
         <v>220</v>
       </c>
       <c r="C199" s="17" t="s">
@@ -5510,16 +5514,16 @@
         <v>3</v>
       </c>
       <c r="G199" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="43"/>
-      <c r="B200" s="46"/>
+      <c r="A200" s="58"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="17" t="s">
         <v>221</v>
       </c>
@@ -5529,16 +5533,16 @@
         <v>5</v>
       </c>
       <c r="G200" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="43"/>
-      <c r="B201" s="45"/>
+      <c r="A201" s="58"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="17" t="s">
         <v>222</v>
       </c>
@@ -5548,16 +5552,16 @@
         <v>3</v>
       </c>
       <c r="G201" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="43"/>
-      <c r="B202" s="44" t="s">
+      <c r="A202" s="58"/>
+      <c r="B202" s="40" t="s">
         <v>113</v>
       </c>
       <c r="C202" s="17" t="s">
@@ -5577,8 +5581,8 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="43"/>
-      <c r="B203" s="46"/>
+      <c r="A203" s="58"/>
+      <c r="B203" s="41"/>
       <c r="C203" s="17" t="s">
         <v>224</v>
       </c>
@@ -5596,8 +5600,8 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="43"/>
-      <c r="B204" s="46"/>
+      <c r="A204" s="58"/>
+      <c r="B204" s="41"/>
       <c r="C204" s="15" t="s">
         <v>225</v>
       </c>
@@ -5615,8 +5619,8 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="43"/>
-      <c r="B205" s="45"/>
+      <c r="A205" s="58"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="6" t="s">
         <v>226</v>
       </c>
@@ -5634,8 +5638,8 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="43"/>
-      <c r="B206" s="44" t="s">
+      <c r="A206" s="58"/>
+      <c r="B206" s="40" t="s">
         <v>227</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -5655,8 +5659,8 @@
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="43"/>
-      <c r="B207" s="45"/>
+      <c r="A207" s="58"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="6" t="s">
         <v>109</v>
       </c>
@@ -5674,8 +5678,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="43"/>
-      <c r="B208" s="44" t="s">
+      <c r="A208" s="58"/>
+      <c r="B208" s="40" t="s">
         <v>228</v>
       </c>
       <c r="C208" s="6" t="s">
@@ -5695,8 +5699,8 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="43"/>
-      <c r="B209" s="45"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="6" t="s">
         <v>109</v>
       </c>
@@ -5714,8 +5718,8 @@
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="43"/>
-      <c r="B210" s="44" t="s">
+      <c r="A210" s="58"/>
+      <c r="B210" s="40" t="s">
         <v>229</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -5735,8 +5739,8 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="43"/>
-      <c r="B211" s="45"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="6" t="s">
         <v>109</v>
       </c>
@@ -5754,8 +5758,8 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="43"/>
-      <c r="B212" s="44" t="s">
+      <c r="A212" s="58"/>
+      <c r="B212" s="40" t="s">
         <v>230</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -5775,8 +5779,8 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="43"/>
-      <c r="B213" s="45"/>
+      <c r="A213" s="58"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="6" t="s">
         <v>109</v>
       </c>
@@ -5794,8 +5798,8 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="43"/>
-      <c r="B214" s="44" t="s">
+      <c r="A214" s="58"/>
+      <c r="B214" s="40" t="s">
         <v>231</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -5807,16 +5811,16 @@
         <v>4</v>
       </c>
       <c r="G214" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H214" s="12">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="43"/>
-      <c r="B215" s="45"/>
+      <c r="A215" s="58"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="6" t="s">
         <v>109</v>
       </c>
@@ -5826,16 +5830,16 @@
         <v>6</v>
       </c>
       <c r="G215" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H215" s="12">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="43"/>
-      <c r="B216" s="44" t="s">
+      <c r="A216" s="58"/>
+      <c r="B216" s="40" t="s">
         <v>232</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -5855,8 +5859,8 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="43"/>
-      <c r="B217" s="46"/>
+      <c r="A217" s="58"/>
+      <c r="B217" s="41"/>
       <c r="C217" s="6" t="s">
         <v>85</v>
       </c>
@@ -5874,8 +5878,8 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="43"/>
-      <c r="B218" s="45"/>
+      <c r="A218" s="58"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="6" t="s">
         <v>233</v>
       </c>
@@ -5893,8 +5897,8 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="43"/>
-      <c r="B219" s="44" t="s">
+      <c r="A219" s="58"/>
+      <c r="B219" s="40" t="s">
         <v>234</v>
       </c>
       <c r="C219" s="6" t="s">
@@ -5906,16 +5910,16 @@
         <v>4</v>
       </c>
       <c r="G219" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H219" s="12">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="43"/>
-      <c r="B220" s="45"/>
+      <c r="A220" s="58"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="6" t="s">
         <v>235</v>
       </c>
@@ -5925,16 +5929,16 @@
         <v>6</v>
       </c>
       <c r="G220" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="43"/>
-      <c r="B221" s="44" t="s">
+      <c r="A221" s="58"/>
+      <c r="B221" s="40" t="s">
         <v>236</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -5954,8 +5958,8 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="43"/>
-      <c r="B222" s="46"/>
+      <c r="A222" s="58"/>
+      <c r="B222" s="41"/>
       <c r="C222" s="6" t="s">
         <v>237</v>
       </c>
@@ -5973,8 +5977,8 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="43"/>
-      <c r="B223" s="46"/>
+      <c r="A223" s="58"/>
+      <c r="B223" s="41"/>
       <c r="C223" s="6" t="s">
         <v>238</v>
       </c>
@@ -5992,8 +5996,8 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="43"/>
-      <c r="B224" s="46"/>
+      <c r="A224" s="58"/>
+      <c r="B224" s="41"/>
       <c r="C224" s="15" t="s">
         <v>239</v>
       </c>
@@ -6011,8 +6015,8 @@
       </c>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="43"/>
-      <c r="B225" s="46"/>
+      <c r="A225" s="58"/>
+      <c r="B225" s="41"/>
       <c r="C225" s="6" t="s">
         <v>240</v>
       </c>
@@ -6030,8 +6034,8 @@
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="43"/>
-      <c r="B226" s="45"/>
+      <c r="A226" s="58"/>
+      <c r="B226" s="42"/>
       <c r="C226" s="6" t="s">
         <v>241</v>
       </c>
@@ -6049,13 +6053,13 @@
       </c>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="43" t="s">
+      <c r="A227" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="B227" s="44" t="s">
+      <c r="B227" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="C227" s="59" t="s">
+      <c r="C227" s="46" t="s">
         <v>244</v>
       </c>
       <c r="D227" s="36" t="s">
@@ -6074,9 +6078,9 @@
       </c>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="43"/>
-      <c r="B228" s="46"/>
-      <c r="C228" s="60"/>
+      <c r="A228" s="58"/>
+      <c r="B228" s="41"/>
+      <c r="C228" s="47"/>
       <c r="D228" s="36" t="s">
         <v>245</v>
       </c>
@@ -6093,10 +6097,10 @@
       </c>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="43"/>
-      <c r="B229" s="46"/>
-      <c r="C229" s="60"/>
-      <c r="D229" s="59" t="s">
+      <c r="A229" s="58"/>
+      <c r="B229" s="41"/>
+      <c r="C229" s="47"/>
+      <c r="D229" s="46" t="s">
         <v>246</v>
       </c>
       <c r="E229" s="36"/>
@@ -6112,10 +6116,10 @@
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="43"/>
-      <c r="B230" s="46"/>
-      <c r="C230" s="60"/>
-      <c r="D230" s="60"/>
+      <c r="A230" s="58"/>
+      <c r="B230" s="41"/>
+      <c r="C230" s="47"/>
+      <c r="D230" s="47"/>
       <c r="E230" s="36" t="s">
         <v>247</v>
       </c>
@@ -6129,13 +6133,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K230" s="62"/>
+      <c r="K230" s="39"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="43"/>
-      <c r="B231" s="46"/>
-      <c r="C231" s="61"/>
-      <c r="D231" s="61"/>
+      <c r="A231" s="58"/>
+      <c r="B231" s="41"/>
+      <c r="C231" s="48"/>
+      <c r="D231" s="48"/>
       <c r="E231" s="36" t="s">
         <v>222</v>
       </c>
@@ -6151,9 +6155,9 @@
       </c>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="43"/>
-      <c r="B232" s="46"/>
-      <c r="C232" s="50" t="s">
+      <c r="A232" s="58"/>
+      <c r="B232" s="41"/>
+      <c r="C232" s="43" t="s">
         <v>248</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -6172,9 +6176,9 @@
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="43"/>
-      <c r="B233" s="46"/>
-      <c r="C233" s="51"/>
+      <c r="A233" s="58"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="44"/>
       <c r="D233" s="6" t="s">
         <v>249</v>
       </c>
@@ -6191,9 +6195,9 @@
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="43"/>
-      <c r="B234" s="46"/>
-      <c r="C234" s="50" t="s">
+      <c r="A234" s="58"/>
+      <c r="B234" s="41"/>
+      <c r="C234" s="43" t="s">
         <v>250</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -6212,9 +6216,9 @@
       </c>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="43"/>
-      <c r="B235" s="46"/>
-      <c r="C235" s="52"/>
+      <c r="A235" s="58"/>
+      <c r="B235" s="41"/>
+      <c r="C235" s="45"/>
       <c r="D235" s="6" t="s">
         <v>251</v>
       </c>
@@ -6231,10 +6235,10 @@
       </c>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="43"/>
-      <c r="B236" s="46"/>
-      <c r="C236" s="52"/>
-      <c r="D236" s="50" t="s">
+      <c r="A236" s="58"/>
+      <c r="B236" s="41"/>
+      <c r="C236" s="45"/>
+      <c r="D236" s="43" t="s">
         <v>252</v>
       </c>
       <c r="E236" s="6" t="s">
@@ -6252,10 +6256,10 @@
       </c>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="43"/>
-      <c r="B237" s="45"/>
-      <c r="C237" s="51"/>
-      <c r="D237" s="51"/>
+      <c r="A237" s="58"/>
+      <c r="B237" s="42"/>
+      <c r="C237" s="44"/>
+      <c r="D237" s="44"/>
       <c r="E237" s="6" t="s">
         <v>253</v>
       </c>
@@ -6271,11 +6275,11 @@
       </c>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="43"/>
-      <c r="B238" s="44" t="s">
+      <c r="A238" s="58"/>
+      <c r="B238" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C238" s="50" t="s">
+      <c r="C238" s="43" t="s">
         <v>255</v>
       </c>
       <c r="D238" s="6" t="s">
@@ -6294,9 +6298,9 @@
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="43"/>
-      <c r="B239" s="46"/>
-      <c r="C239" s="52"/>
+      <c r="A239" s="58"/>
+      <c r="B239" s="41"/>
+      <c r="C239" s="45"/>
       <c r="D239" s="6" t="s">
         <v>256</v>
       </c>
@@ -6313,9 +6317,9 @@
       </c>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="43"/>
-      <c r="B240" s="46"/>
-      <c r="C240" s="52"/>
+      <c r="A240" s="58"/>
+      <c r="B240" s="41"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="6" t="s">
         <v>222</v>
       </c>
@@ -6332,9 +6336,9 @@
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="43"/>
-      <c r="B241" s="46"/>
-      <c r="C241" s="51"/>
+      <c r="A241" s="58"/>
+      <c r="B241" s="41"/>
+      <c r="C241" s="44"/>
       <c r="D241" s="15" t="s">
         <v>257</v>
       </c>
@@ -6351,9 +6355,9 @@
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="43"/>
-      <c r="B242" s="46"/>
-      <c r="C242" s="50" t="s">
+      <c r="A242" s="58"/>
+      <c r="B242" s="41"/>
+      <c r="C242" s="43" t="s">
         <v>258</v>
       </c>
       <c r="D242" s="6" t="s">
@@ -6372,9 +6376,9 @@
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="43"/>
-      <c r="B243" s="45"/>
-      <c r="C243" s="51"/>
+      <c r="A243" s="58"/>
+      <c r="B243" s="42"/>
+      <c r="C243" s="44"/>
       <c r="D243" s="6" t="s">
         <v>259</v>
       </c>
@@ -6391,11 +6395,11 @@
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="43"/>
-      <c r="B244" s="44" t="s">
+      <c r="A244" s="58"/>
+      <c r="B244" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="C244" s="50" t="s">
+      <c r="C244" s="43" t="s">
         <v>261</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -6414,9 +6418,9 @@
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="43"/>
-      <c r="B245" s="46"/>
-      <c r="C245" s="51"/>
+      <c r="A245" s="58"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="44"/>
       <c r="D245" s="6" t="s">
         <v>262</v>
       </c>
@@ -6433,9 +6437,9 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="43"/>
-      <c r="B246" s="46"/>
-      <c r="C246" s="50" t="s">
+      <c r="A246" s="58"/>
+      <c r="B246" s="41"/>
+      <c r="C246" s="43" t="s">
         <v>263</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -6454,9 +6458,9 @@
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="43"/>
-      <c r="B247" s="46"/>
-      <c r="C247" s="52"/>
+      <c r="A247" s="58"/>
+      <c r="B247" s="41"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="6" t="s">
         <v>264</v>
       </c>
@@ -6473,9 +6477,9 @@
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="43"/>
-      <c r="B248" s="46"/>
-      <c r="C248" s="51"/>
+      <c r="A248" s="58"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="44"/>
       <c r="D248" s="6" t="s">
         <v>265</v>
       </c>
@@ -6492,9 +6496,9 @@
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="43"/>
-      <c r="B249" s="46"/>
-      <c r="C249" s="50" t="s">
+      <c r="A249" s="58"/>
+      <c r="B249" s="41"/>
+      <c r="C249" s="43" t="s">
         <v>266</v>
       </c>
       <c r="D249" s="6" t="s">
@@ -6513,9 +6517,9 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="43"/>
-      <c r="B250" s="46"/>
-      <c r="C250" s="52"/>
+      <c r="A250" s="58"/>
+      <c r="B250" s="41"/>
+      <c r="C250" s="45"/>
       <c r="D250" s="6" t="s">
         <v>267</v>
       </c>
@@ -6524,17 +6528,17 @@
         <v>10</v>
       </c>
       <c r="G250" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H250" s="12">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="43"/>
-      <c r="B251" s="46"/>
-      <c r="C251" s="52"/>
+      <c r="A251" s="58"/>
+      <c r="B251" s="41"/>
+      <c r="C251" s="45"/>
       <c r="D251" s="6" t="s">
         <v>268</v>
       </c>
@@ -6543,17 +6547,17 @@
         <v>5</v>
       </c>
       <c r="G251" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="43"/>
-      <c r="B252" s="45"/>
-      <c r="C252" s="51"/>
+      <c r="A252" s="58"/>
+      <c r="B252" s="42"/>
+      <c r="C252" s="44"/>
       <c r="D252" s="6" t="s">
         <v>269</v>
       </c>
@@ -6562,19 +6566,19 @@
         <v>5</v>
       </c>
       <c r="G252" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="43"/>
-      <c r="B253" s="44" t="s">
+      <c r="A253" s="58"/>
+      <c r="B253" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="C253" s="50" t="s">
+      <c r="C253" s="43" t="s">
         <v>271</v>
       </c>
       <c r="D253" s="6" t="s">
@@ -6593,9 +6597,9 @@
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="43"/>
-      <c r="B254" s="46"/>
-      <c r="C254" s="52"/>
+      <c r="A254" s="58"/>
+      <c r="B254" s="41"/>
+      <c r="C254" s="45"/>
       <c r="D254" s="6" t="s">
         <v>222</v>
       </c>
@@ -6612,9 +6616,9 @@
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="43"/>
-      <c r="B255" s="46"/>
-      <c r="C255" s="51"/>
+      <c r="A255" s="58"/>
+      <c r="B255" s="41"/>
+      <c r="C255" s="44"/>
       <c r="D255" s="6" t="s">
         <v>256</v>
       </c>
@@ -6631,8 +6635,8 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="43"/>
-      <c r="B256" s="45"/>
+      <c r="A256" s="58"/>
+      <c r="B256" s="42"/>
       <c r="C256" s="6" t="s">
         <v>272</v>
       </c>
@@ -6650,8 +6654,8 @@
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="43"/>
-      <c r="B257" s="44" t="s">
+      <c r="A257" s="58"/>
+      <c r="B257" s="40" t="s">
         <v>273</v>
       </c>
       <c r="C257" s="6" t="s">
@@ -6671,8 +6675,8 @@
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="43"/>
-      <c r="B258" s="45"/>
+      <c r="A258" s="58"/>
+      <c r="B258" s="42"/>
       <c r="C258" s="6" t="s">
         <v>275</v>
       </c>
@@ -6690,11 +6694,11 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="43"/>
-      <c r="B259" s="44" t="s">
+      <c r="A259" s="58"/>
+      <c r="B259" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C259" s="50" t="s">
+      <c r="C259" s="43" t="s">
         <v>277</v>
       </c>
       <c r="D259" s="6" t="s">
@@ -6713,9 +6717,9 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="43"/>
-      <c r="B260" s="46"/>
-      <c r="C260" s="52"/>
+      <c r="A260" s="58"/>
+      <c r="B260" s="41"/>
+      <c r="C260" s="45"/>
       <c r="D260" s="6" t="s">
         <v>256</v>
       </c>
@@ -6732,9 +6736,9 @@
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="43"/>
-      <c r="B261" s="46"/>
-      <c r="C261" s="52"/>
+      <c r="A261" s="58"/>
+      <c r="B261" s="41"/>
+      <c r="C261" s="45"/>
       <c r="D261" s="6" t="s">
         <v>222</v>
       </c>
@@ -6751,9 +6755,9 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="43"/>
-      <c r="B262" s="46"/>
-      <c r="C262" s="51"/>
+      <c r="A262" s="58"/>
+      <c r="B262" s="41"/>
+      <c r="C262" s="44"/>
       <c r="D262" s="6" t="s">
         <v>278</v>
       </c>
@@ -6770,9 +6774,9 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="43"/>
-      <c r="B263" s="46"/>
-      <c r="C263" s="50" t="s">
+      <c r="A263" s="58"/>
+      <c r="B263" s="41"/>
+      <c r="C263" s="43" t="s">
         <v>279</v>
       </c>
       <c r="D263" s="6" t="s">
@@ -6791,9 +6795,9 @@
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="43"/>
-      <c r="B264" s="46"/>
-      <c r="C264" s="52"/>
+      <c r="A264" s="58"/>
+      <c r="B264" s="41"/>
+      <c r="C264" s="45"/>
       <c r="D264" s="6" t="s">
         <v>256</v>
       </c>
@@ -6810,9 +6814,9 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="43"/>
-      <c r="B265" s="46"/>
-      <c r="C265" s="51"/>
+      <c r="A265" s="58"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="44"/>
       <c r="D265" s="6" t="s">
         <v>280</v>
       </c>
@@ -6829,8 +6833,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="43"/>
-      <c r="B266" s="45"/>
+      <c r="A266" s="58"/>
+      <c r="B266" s="42"/>
       <c r="C266" s="6" t="s">
         <v>281</v>
       </c>
@@ -6848,11 +6852,11 @@
       </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="43"/>
-      <c r="B267" s="44" t="s">
+      <c r="A267" s="58"/>
+      <c r="B267" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="C267" s="50" t="s">
+      <c r="C267" s="43" t="s">
         <v>283</v>
       </c>
       <c r="D267" s="6" t="s">
@@ -6863,17 +6867,17 @@
         <v>3</v>
       </c>
       <c r="G267" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="43"/>
-      <c r="B268" s="46"/>
-      <c r="C268" s="51"/>
+      <c r="A268" s="58"/>
+      <c r="B268" s="41"/>
+      <c r="C268" s="44"/>
       <c r="D268" s="6" t="s">
         <v>284</v>
       </c>
@@ -6882,17 +6886,17 @@
         <v>3</v>
       </c>
       <c r="G268" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="43"/>
-      <c r="B269" s="46"/>
-      <c r="C269" s="50" t="s">
+      <c r="A269" s="58"/>
+      <c r="B269" s="41"/>
+      <c r="C269" s="43" t="s">
         <v>285</v>
       </c>
       <c r="D269" s="6" t="s">
@@ -6911,9 +6915,9 @@
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="43"/>
-      <c r="B270" s="46"/>
-      <c r="C270" s="51"/>
+      <c r="A270" s="58"/>
+      <c r="B270" s="41"/>
+      <c r="C270" s="44"/>
       <c r="D270" s="6" t="s">
         <v>286</v>
       </c>
@@ -6930,9 +6934,9 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="43"/>
-      <c r="B271" s="46"/>
-      <c r="C271" s="50" t="s">
+      <c r="A271" s="58"/>
+      <c r="B271" s="41"/>
+      <c r="C271" s="43" t="s">
         <v>287</v>
       </c>
       <c r="D271" s="6" t="s">
@@ -6951,9 +6955,9 @@
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="43"/>
-      <c r="B272" s="46"/>
-      <c r="C272" s="51"/>
+      <c r="A272" s="58"/>
+      <c r="B272" s="41"/>
+      <c r="C272" s="44"/>
       <c r="D272" s="6" t="s">
         <v>286</v>
       </c>
@@ -6970,9 +6974,9 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="43"/>
-      <c r="B273" s="46"/>
-      <c r="C273" s="50" t="s">
+      <c r="A273" s="58"/>
+      <c r="B273" s="41"/>
+      <c r="C273" s="43" t="s">
         <v>288</v>
       </c>
       <c r="D273" s="6" t="s">
@@ -6980,41 +6984,41 @@
       </c>
       <c r="E273" s="6"/>
       <c r="F273" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G273" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H273" s="12">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="43"/>
-      <c r="B274" s="45"/>
-      <c r="C274" s="51"/>
+      <c r="A274" s="58"/>
+      <c r="B274" s="42"/>
+      <c r="C274" s="44"/>
       <c r="D274" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G274" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H274" s="12">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="43"/>
-      <c r="B275" s="44" t="s">
+      <c r="A275" s="58"/>
+      <c r="B275" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="C275" s="50" t="s">
+      <c r="C275" s="43" t="s">
         <v>239</v>
       </c>
       <c r="D275" s="6" t="s">
@@ -7033,9 +7037,9 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="43"/>
-      <c r="B276" s="46"/>
-      <c r="C276" s="52"/>
+      <c r="A276" s="58"/>
+      <c r="B276" s="41"/>
+      <c r="C276" s="45"/>
       <c r="D276" s="6" t="s">
         <v>291</v>
       </c>
@@ -7052,9 +7056,9 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="43"/>
-      <c r="B277" s="46"/>
-      <c r="C277" s="52"/>
+      <c r="A277" s="58"/>
+      <c r="B277" s="41"/>
+      <c r="C277" s="45"/>
       <c r="D277" s="6" t="s">
         <v>292</v>
       </c>
@@ -7070,9 +7074,9 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="43"/>
-      <c r="B278" s="46"/>
-      <c r="C278" s="52"/>
+      <c r="A278" s="58"/>
+      <c r="B278" s="41"/>
+      <c r="C278" s="45"/>
       <c r="D278" s="6" t="s">
         <v>293</v>
       </c>
@@ -7088,9 +7092,9 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="43"/>
-      <c r="B279" s="46"/>
-      <c r="C279" s="51"/>
+      <c r="A279" s="58"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="44"/>
       <c r="D279" s="6" t="s">
         <v>222</v>
       </c>
@@ -7107,9 +7111,9 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="43"/>
-      <c r="B280" s="46"/>
-      <c r="C280" s="50" t="s">
+      <c r="A280" s="58"/>
+      <c r="B280" s="41"/>
+      <c r="C280" s="43" t="s">
         <v>294</v>
       </c>
       <c r="D280" s="6" t="s">
@@ -7128,9 +7132,9 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="43"/>
-      <c r="B281" s="46"/>
-      <c r="C281" s="52"/>
+      <c r="A281" s="58"/>
+      <c r="B281" s="41"/>
+      <c r="C281" s="45"/>
       <c r="D281" s="6" t="s">
         <v>295</v>
       </c>
@@ -7147,9 +7151,9 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="43"/>
-      <c r="B282" s="46"/>
-      <c r="C282" s="51"/>
+      <c r="A282" s="58"/>
+      <c r="B282" s="41"/>
+      <c r="C282" s="44"/>
       <c r="D282" s="6" t="s">
         <v>296</v>
       </c>
@@ -7161,14 +7165,14 @@
         <v>1</v>
       </c>
       <c r="H282" s="12">
-        <f t="shared" ref="H282:H300" si="6">G282*F282</f>
+        <f t="shared" ref="H282:H301" si="6">G282*F282</f>
         <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="43"/>
-      <c r="B283" s="46"/>
-      <c r="C283" s="44" t="s">
+      <c r="A283" s="58"/>
+      <c r="B283" s="41"/>
+      <c r="C283" s="40" t="s">
         <v>297</v>
       </c>
       <c r="D283" s="6" t="s">
@@ -7187,9 +7191,9 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="43"/>
-      <c r="B284" s="46"/>
-      <c r="C284" s="46"/>
+      <c r="A284" s="58"/>
+      <c r="B284" s="41"/>
+      <c r="C284" s="41"/>
       <c r="D284" s="6" t="s">
         <v>299</v>
       </c>
@@ -7206,9 +7210,9 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="43"/>
-      <c r="B285" s="46"/>
-      <c r="C285" s="46"/>
+      <c r="A285" s="58"/>
+      <c r="B285" s="41"/>
+      <c r="C285" s="41"/>
       <c r="D285" s="6" t="s">
         <v>300</v>
       </c>
@@ -7225,9 +7229,9 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="43"/>
-      <c r="B286" s="46"/>
-      <c r="C286" s="45"/>
+      <c r="A286" s="58"/>
+      <c r="B286" s="41"/>
+      <c r="C286" s="42"/>
       <c r="D286" s="20" t="s">
         <v>301</v>
       </c>
@@ -7244,9 +7248,9 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="43"/>
-      <c r="B287" s="46"/>
-      <c r="C287" s="50" t="s">
+      <c r="A287" s="58"/>
+      <c r="B287" s="41"/>
+      <c r="C287" s="43" t="s">
         <v>302</v>
       </c>
       <c r="D287" s="6" t="s">
@@ -7265,9 +7269,9 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="43"/>
-      <c r="B288" s="45"/>
-      <c r="C288" s="51"/>
+      <c r="A288" s="58"/>
+      <c r="B288" s="42"/>
+      <c r="C288" s="44"/>
       <c r="D288" s="6" t="s">
         <v>303</v>
       </c>
@@ -7283,7 +7287,7 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="43"/>
+      <c r="A289" s="58"/>
       <c r="B289" s="6" t="s">
         <v>194</v>
       </c>
@@ -7297,35 +7301,30 @@
         <v>1</v>
       </c>
       <c r="H289" s="12">
-        <f t="shared" si="6"/>
+        <f>G289*F289</f>
         <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="47" t="s">
+      <c r="A290" s="58"/>
+      <c r="B290" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="31">
+        <v>10</v>
+      </c>
+      <c r="G290" s="31"/>
+      <c r="H290" s="19"/>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B290" s="36" t="s">
+      <c r="B291" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="C290" s="36"/>
-      <c r="D290" s="36"/>
-      <c r="E290" s="36"/>
-      <c r="F290" s="37">
-        <v>3</v>
-      </c>
-      <c r="G290" s="38">
-        <v>0</v>
-      </c>
-      <c r="H290" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
-      <c r="A291" s="48"/>
-      <c r="B291" s="36" t="s">
-        <v>306</v>
       </c>
       <c r="C291" s="36"/>
       <c r="D291" s="36"/>
@@ -7340,36 +7339,33 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J291" s="33">
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292" s="56"/>
+      <c r="B292" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C292" s="36"/>
+      <c r="D292" s="36"/>
+      <c r="E292" s="36"/>
+      <c r="F292" s="37">
+        <v>3</v>
+      </c>
+      <c r="G292" s="38">
+        <v>0</v>
+      </c>
+      <c r="H292" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J292" s="33">
         <v>42901</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
-      <c r="A292" s="48"/>
-      <c r="B292" s="6" t="s">
+    <row r="293" spans="1:10">
+      <c r="A293" s="56"/>
+      <c r="B293" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="10">
-        <v>5</v>
-      </c>
-      <c r="G292" s="8">
-        <v>1</v>
-      </c>
-      <c r="H292" s="12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J292" s="33">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10">
-      <c r="A293" s="48"/>
-      <c r="B293" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -7385,41 +7381,41 @@
         <v>5</v>
       </c>
       <c r="J293" s="33">
-        <v>42979</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="48"/>
+      <c r="A294" s="56"/>
       <c r="B294" s="6" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G294" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J294" s="33">
-        <v>43009</v>
+        <v>42979</v>
       </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="48"/>
+      <c r="A295" s="56"/>
       <c r="B295" s="6" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G295" s="8">
         <v>0</v>
@@ -7429,13 +7425,13 @@
         <v>0</v>
       </c>
       <c r="J295" s="33">
-        <v>42919</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="49"/>
+      <c r="A296" s="56"/>
       <c r="B296" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -7450,63 +7446,62 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J296">
-        <f>J294-J291</f>
-        <v>108</v>
+      <c r="J296" s="33">
+        <v>42919</v>
       </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="43" t="s">
-        <v>311</v>
-      </c>
+      <c r="A297" s="57"/>
       <c r="B297" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G297" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="12">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J297">
-        <f>J293-J292</f>
-        <v>62</v>
+        <f>J295-J292</f>
+        <v>108</v>
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="43"/>
-      <c r="B298" s="21" t="s">
-        <v>313</v>
+      <c r="A298" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
-      <c r="F298" s="7">
-        <v>4</v>
+      <c r="F298" s="10">
+        <v>2</v>
       </c>
       <c r="G298" s="8">
         <v>1</v>
       </c>
       <c r="H298" s="12">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J298">
-        <f>J295-J291</f>
-        <v>18</v>
+        <f>J294-J293</f>
+        <v>62</v>
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="43"/>
+      <c r="A299" s="58"/>
       <c r="B299" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -7515,41 +7510,54 @@
         <v>4</v>
       </c>
       <c r="G299" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H299" s="12">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J299">
+        <f>J296-J292</f>
+        <v>18</v>
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="43"/>
-      <c r="B300" s="6" t="s">
-        <v>315</v>
+      <c r="A300" s="58"/>
+      <c r="B300" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
-      <c r="F300" s="10">
-        <v>3</v>
+      <c r="F300" s="7">
+        <v>4</v>
       </c>
       <c r="G300" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H300" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="22"/>
-      <c r="B301" s="23"/>
-      <c r="C301" s="23"/>
-      <c r="D301" s="23"/>
-      <c r="E301" s="23"/>
-      <c r="F301" s="24"/>
-      <c r="G301" s="25"/>
-      <c r="H301" s="26"/>
+      <c r="A301" s="58"/>
+      <c r="B301" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="10">
+        <v>3</v>
+      </c>
+      <c r="G301" s="8">
+        <v>0</v>
+      </c>
+      <c r="H301" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="22"/>
@@ -7566,68 +7574,152 @@
       <c r="B303" s="23"/>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
-      <c r="E303" s="4" t="s">
+      <c r="E303" s="23"/>
+      <c r="F303" s="24"/>
+      <c r="G303" s="25"/>
+      <c r="H303" s="26"/>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" s="22"/>
+      <c r="B304" s="23"/>
+      <c r="C304" s="23"/>
+      <c r="D304" s="23"/>
+      <c r="E304" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F303" s="4" t="s">
+      <c r="F304" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G303" s="27" t="s">
+      <c r="G304" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H303" s="4" t="s">
+      <c r="H304" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I303" s="34" t="s">
+      <c r="I304" s="34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
-      <c r="A304" s="23"/>
-      <c r="B304" s="28"/>
-      <c r="C304" s="28"/>
-      <c r="D304" s="28"/>
-      <c r="E304" s="17" t="s">
+    <row r="305" spans="1:9">
+      <c r="A305" s="23"/>
+      <c r="B305" s="28"/>
+      <c r="C305" s="28"/>
+      <c r="D305" s="28"/>
+      <c r="E305" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="F304" s="7">
-        <f>SUM(F4:F300)</f>
-        <v>1149</v>
-      </c>
-      <c r="G304" s="29">
-        <f>H304/F304</f>
-        <v>0.69325500435161003</v>
-      </c>
-      <c r="H304" s="12">
-        <f>SUM(H4:H300)</f>
-        <v>796.55</v>
-      </c>
-      <c r="I304" s="35">
+      <c r="F305" s="7">
+        <f>SUM(F4:F301)</f>
+        <v>1145</v>
+      </c>
+      <c r="G305" s="29">
+        <f>H305/F305</f>
+        <v>0.74432314410480349</v>
+      </c>
+      <c r="H305" s="12">
+        <f>SUM(H4:H301)</f>
+        <v>852.25</v>
+      </c>
+      <c r="I305" s="35">
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="305" spans="5:9">
-      <c r="E305" s="30" t="s">
+    <row r="306" spans="1:9">
+      <c r="E306" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="F305" s="31">
-        <f>SUM(F25:F289)</f>
-        <v>598</v>
-      </c>
-      <c r="G305" s="32">
-        <f>H305/F305</f>
-        <v>0.83871237458193981</v>
-      </c>
-      <c r="H305" s="31">
+      <c r="F306" s="31">
+        <f>SUM(F25:F290)</f>
+        <v>594</v>
+      </c>
+      <c r="G306" s="32">
+        <f>H306/F306</f>
+        <v>0.93813131313131315</v>
+      </c>
+      <c r="H306" s="31">
         <f>SUM(H25:H289)</f>
-        <v>501.55</v>
-      </c>
-      <c r="I305" s="35">
+        <v>557.25</v>
+      </c>
+      <c r="I306" s="35">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A26:A180"/>
+    <mergeCell ref="A181:A226"/>
+    <mergeCell ref="A227:A290"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="B227:B237"/>
+    <mergeCell ref="B238:B243"/>
+    <mergeCell ref="B244:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="B259:B266"/>
+    <mergeCell ref="B267:B274"/>
+    <mergeCell ref="A291:A297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="B45:B75"/>
+    <mergeCell ref="B76:B119"/>
+    <mergeCell ref="B120:B180"/>
+    <mergeCell ref="B182:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B275:B288"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C53:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C145"/>
+    <mergeCell ref="C146:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C175:C180"/>
+    <mergeCell ref="C183:C189"/>
+    <mergeCell ref="C227:C231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C246:C248"/>
     <mergeCell ref="C283:C286"/>
     <mergeCell ref="C287:C288"/>
     <mergeCell ref="D54:D57"/>
@@ -7644,80 +7736,6 @@
     <mergeCell ref="C253:C255"/>
     <mergeCell ref="C259:C262"/>
     <mergeCell ref="C263:C265"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C175:C180"/>
-    <mergeCell ref="C183:C189"/>
-    <mergeCell ref="C227:C231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C146:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="B275:B288"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C53:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A290:A296"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="B45:B75"/>
-    <mergeCell ref="B76:B119"/>
-    <mergeCell ref="B120:B180"/>
-    <mergeCell ref="B182:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="A26:A180"/>
-    <mergeCell ref="A181:A226"/>
-    <mergeCell ref="A227:A289"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B226"/>
-    <mergeCell ref="B227:B237"/>
-    <mergeCell ref="B238:B243"/>
-    <mergeCell ref="B244:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B266"/>
-    <mergeCell ref="B267:B274"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
